--- a/Documents/Table_List/03_Enemy_Table.xlsx
+++ b/Documents/Table_List/03_Enemy_Table.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3F82DA-EDD4-445F-A3BF-4CB5E8581884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E5D942-DEC8-4480-8020-00C7F13D0E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5010" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{5A37F908-261C-4BE0-9C6B-B14E11827940}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A37F908-261C-4BE0-9C6B-B14E11827940}"/>
   </bookViews>
   <sheets>
     <sheet name="Enemy_Table" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Enemy_Table!$A$1:$T$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Enemy_Table!$A$1:$U$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1082,7 +1082,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="1" shapeId="0" xr:uid="{0DB37BA1-9AB7-4E8F-92B9-4650EAEF3681}">
+    <comment ref="T2" authorId="1" shapeId="0" xr:uid="{0DB37BA1-9AB7-4E8F-92B9-4650EAEF3681}">
       <text>
         <r>
           <rPr>
@@ -1101,7 +1101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="91">
   <si>
     <t>번호</t>
   </si>
@@ -1664,13 +1664,23 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>애니메이션
+공격 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atk_Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -1909,7 +1919,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1934,10 +1944,13 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1946,17 +1959,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2272,10 +2288,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13258274-53B7-4F09-920C-41EC9C872C80}">
-  <dimension ref="B2:T35"/>
+  <dimension ref="B2:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2283,58 +2299,61 @@
     <col min="1" max="1" width="2.25" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="38.25" customWidth="1"/>
+    <col min="21" max="21" width="38.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20">
-      <c r="B2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="10" t="s">
+    <row r="2" spans="2:21">
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="8" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="8" t="s">
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="10" t="s">
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="T2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="U2" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="2:20">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="9"/>
+    <row r="3" spans="2:21">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2368,11 +2387,12 @@
       <c r="Q3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="11"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="11"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="12"/>
     </row>
-    <row r="4" spans="2:20">
+    <row r="4" spans="2:21">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -2425,13 +2445,16 @@
         <v>31</v>
       </c>
       <c r="S4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="T4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="U4" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="2:20">
+    <row r="5" spans="2:21">
       <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
@@ -2484,13 +2507,16 @@
         <v>15</v>
       </c>
       <c r="S5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="T5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="T5" s="7" t="s">
+      <c r="U5" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:20">
+    <row r="6" spans="2:21">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -2542,12 +2568,15 @@
       <c r="R6" s="4">
         <v>1</v>
       </c>
-      <c r="S6" s="4">
+      <c r="S6" s="17">
+        <v>1</v>
+      </c>
+      <c r="T6" s="4">
         <v>900085</v>
       </c>
-      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
     </row>
-    <row r="7" spans="2:20">
+    <row r="7" spans="2:21">
       <c r="B7" s="3">
         <v>2</v>
       </c>
@@ -2599,12 +2628,15 @@
       <c r="R7" s="4">
         <v>1</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S7" s="17">
+        <v>1</v>
+      </c>
+      <c r="T7" s="4">
         <v>900086</v>
       </c>
-      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
     </row>
-    <row r="8" spans="2:20">
+    <row r="8" spans="2:21">
       <c r="B8" s="3">
         <v>3</v>
       </c>
@@ -2656,12 +2688,15 @@
       <c r="R8" s="4">
         <v>1</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8" s="17">
+        <v>1</v>
+      </c>
+      <c r="T8" s="4">
         <v>900087</v>
       </c>
-      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
     </row>
-    <row r="9" spans="2:20">
+    <row r="9" spans="2:21">
       <c r="B9" s="3">
         <v>4</v>
       </c>
@@ -2713,12 +2748,15 @@
       <c r="R9" s="4">
         <v>1</v>
       </c>
-      <c r="S9" s="4">
+      <c r="S9" s="17">
+        <v>1</v>
+      </c>
+      <c r="T9" s="4">
         <v>900088</v>
       </c>
-      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
     </row>
-    <row r="10" spans="2:20">
+    <row r="10" spans="2:21">
       <c r="B10" s="3">
         <v>5</v>
       </c>
@@ -2770,12 +2808,15 @@
       <c r="R10" s="4">
         <v>1</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S10" s="17">
+        <v>1</v>
+      </c>
+      <c r="T10" s="4">
         <v>900089</v>
       </c>
-      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
     </row>
-    <row r="11" spans="2:20">
+    <row r="11" spans="2:21">
       <c r="B11" s="3">
         <v>6</v>
       </c>
@@ -2827,12 +2868,15 @@
       <c r="R11" s="4">
         <v>1</v>
       </c>
-      <c r="S11" s="4">
+      <c r="S11" s="17">
+        <v>1</v>
+      </c>
+      <c r="T11" s="4">
         <v>900090</v>
       </c>
-      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
     </row>
-    <row r="12" spans="2:20">
+    <row r="12" spans="2:21">
       <c r="B12" s="3">
         <v>7</v>
       </c>
@@ -2884,12 +2928,15 @@
       <c r="R12" s="4">
         <v>1</v>
       </c>
-      <c r="S12" s="4">
+      <c r="S12" s="17">
+        <v>1</v>
+      </c>
+      <c r="T12" s="4">
         <v>900091</v>
       </c>
-      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
     </row>
-    <row r="13" spans="2:20">
+    <row r="13" spans="2:21">
       <c r="B13" s="3">
         <v>8</v>
       </c>
@@ -2941,12 +2988,15 @@
       <c r="R13" s="4">
         <v>1</v>
       </c>
-      <c r="S13" s="4">
+      <c r="S13" s="17">
+        <v>1</v>
+      </c>
+      <c r="T13" s="4">
         <v>900092</v>
       </c>
-      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
     </row>
-    <row r="14" spans="2:20">
+    <row r="14" spans="2:21">
       <c r="B14" s="3">
         <v>9</v>
       </c>
@@ -2998,12 +3048,15 @@
       <c r="R14" s="4">
         <v>1</v>
       </c>
-      <c r="S14" s="4">
+      <c r="S14" s="17">
+        <v>1</v>
+      </c>
+      <c r="T14" s="4">
         <v>900093</v>
       </c>
-      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
     </row>
-    <row r="15" spans="2:20">
+    <row r="15" spans="2:21">
       <c r="B15" s="3">
         <v>10</v>
       </c>
@@ -3055,12 +3108,15 @@
       <c r="R15" s="4">
         <v>0.5</v>
       </c>
-      <c r="S15" s="4">
+      <c r="S15" s="17">
+        <v>1</v>
+      </c>
+      <c r="T15" s="4">
         <v>900093</v>
       </c>
-      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
     </row>
-    <row r="16" spans="2:20">
+    <row r="16" spans="2:21">
       <c r="B16" s="3">
         <v>11</v>
       </c>
@@ -3112,12 +3168,15 @@
       <c r="R16" s="4">
         <v>1</v>
       </c>
-      <c r="S16" s="4">
+      <c r="S16" s="17">
+        <v>1</v>
+      </c>
+      <c r="T16" s="4">
         <v>900094</v>
       </c>
-      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
     </row>
-    <row r="17" spans="2:20">
+    <row r="17" spans="2:21">
       <c r="B17" s="3">
         <v>12</v>
       </c>
@@ -3169,12 +3228,15 @@
       <c r="R17" s="4">
         <v>1</v>
       </c>
-      <c r="S17" s="4">
+      <c r="S17" s="17">
+        <v>1</v>
+      </c>
+      <c r="T17" s="4">
         <v>900095</v>
       </c>
-      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
     </row>
-    <row r="18" spans="2:20">
+    <row r="18" spans="2:21">
       <c r="B18" s="3">
         <v>13</v>
       </c>
@@ -3226,12 +3288,15 @@
       <c r="R18" s="4">
         <v>1</v>
       </c>
-      <c r="S18" s="4">
+      <c r="S18" s="17">
+        <v>1</v>
+      </c>
+      <c r="T18" s="4">
         <v>900096</v>
       </c>
-      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
     </row>
-    <row r="19" spans="2:20">
+    <row r="19" spans="2:21">
       <c r="B19" s="3">
         <v>14</v>
       </c>
@@ -3283,12 +3348,15 @@
       <c r="R19" s="4">
         <v>1</v>
       </c>
-      <c r="S19" s="4">
+      <c r="S19" s="17">
+        <v>1</v>
+      </c>
+      <c r="T19" s="4">
         <v>900097</v>
       </c>
-      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
     </row>
-    <row r="20" spans="2:20">
+    <row r="20" spans="2:21">
       <c r="B20" s="3">
         <v>15</v>
       </c>
@@ -3340,12 +3408,15 @@
       <c r="R20" s="4">
         <v>1</v>
       </c>
-      <c r="S20" s="4">
+      <c r="S20" s="17">
+        <v>1</v>
+      </c>
+      <c r="T20" s="4">
         <v>900098</v>
       </c>
-      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
     </row>
-    <row r="21" spans="2:20">
+    <row r="21" spans="2:21">
       <c r="B21" s="3">
         <v>16</v>
       </c>
@@ -3397,12 +3468,15 @@
       <c r="R21" s="4">
         <v>1</v>
       </c>
-      <c r="S21" s="4">
+      <c r="S21" s="17">
+        <v>1</v>
+      </c>
+      <c r="T21" s="4">
         <v>900099</v>
       </c>
-      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
     </row>
-    <row r="22" spans="2:20">
+    <row r="22" spans="2:21">
       <c r="B22" s="3">
         <v>17</v>
       </c>
@@ -3454,12 +3528,15 @@
       <c r="R22" s="4">
         <v>1</v>
       </c>
-      <c r="S22" s="4">
+      <c r="S22" s="17">
+        <v>1</v>
+      </c>
+      <c r="T22" s="4">
         <v>900094</v>
       </c>
-      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
     </row>
-    <row r="23" spans="2:20">
+    <row r="23" spans="2:21">
       <c r="B23" s="3">
         <v>18</v>
       </c>
@@ -3511,12 +3588,15 @@
       <c r="R23" s="4">
         <v>1</v>
       </c>
-      <c r="S23" s="4">
+      <c r="S23" s="17">
+        <v>1</v>
+      </c>
+      <c r="T23" s="4">
         <v>900095</v>
       </c>
-      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
     </row>
-    <row r="24" spans="2:20">
+    <row r="24" spans="2:21">
       <c r="B24" s="3">
         <v>19</v>
       </c>
@@ -3568,12 +3648,15 @@
       <c r="R24" s="4">
         <v>1</v>
       </c>
-      <c r="S24" s="4">
+      <c r="S24" s="17">
+        <v>1</v>
+      </c>
+      <c r="T24" s="4">
         <v>900096</v>
       </c>
-      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
     </row>
-    <row r="25" spans="2:20">
+    <row r="25" spans="2:21">
       <c r="B25" s="3">
         <v>20</v>
       </c>
@@ -3625,12 +3708,15 @@
       <c r="R25" s="4">
         <v>1</v>
       </c>
-      <c r="S25" s="4">
+      <c r="S25" s="17">
+        <v>1</v>
+      </c>
+      <c r="T25" s="4">
         <v>900097</v>
       </c>
-      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
     </row>
-    <row r="26" spans="2:20">
+    <row r="26" spans="2:21">
       <c r="B26" s="3">
         <v>21</v>
       </c>
@@ -3682,12 +3768,15 @@
       <c r="R26" s="4">
         <v>1</v>
       </c>
-      <c r="S26" s="4">
+      <c r="S26" s="17">
+        <v>1</v>
+      </c>
+      <c r="T26" s="4">
         <v>900098</v>
       </c>
-      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
     </row>
-    <row r="27" spans="2:20">
+    <row r="27" spans="2:21">
       <c r="B27" s="3">
         <v>22</v>
       </c>
@@ -3739,12 +3828,15 @@
       <c r="R27" s="4">
         <v>1</v>
       </c>
-      <c r="S27" s="4">
+      <c r="S27" s="17">
+        <v>1</v>
+      </c>
+      <c r="T27" s="4">
         <v>900099</v>
       </c>
-      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
     </row>
-    <row r="28" spans="2:20">
+    <row r="28" spans="2:21">
       <c r="B28" s="3">
         <v>23</v>
       </c>
@@ -3796,12 +3888,15 @@
       <c r="R28" s="4">
         <v>1</v>
       </c>
-      <c r="S28" s="4">
+      <c r="S28" s="17">
+        <v>1</v>
+      </c>
+      <c r="T28" s="4">
         <v>900094</v>
       </c>
-      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
     </row>
-    <row r="29" spans="2:20">
+    <row r="29" spans="2:21">
       <c r="B29" s="3">
         <v>24</v>
       </c>
@@ -3853,12 +3948,15 @@
       <c r="R29" s="4">
         <v>1</v>
       </c>
-      <c r="S29" s="4">
+      <c r="S29" s="17">
+        <v>1</v>
+      </c>
+      <c r="T29" s="4">
         <v>900095</v>
       </c>
-      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
     </row>
-    <row r="30" spans="2:20">
+    <row r="30" spans="2:21">
       <c r="B30" s="3">
         <v>25</v>
       </c>
@@ -3910,12 +4008,15 @@
       <c r="R30" s="4">
         <v>1</v>
       </c>
-      <c r="S30" s="4">
+      <c r="S30" s="17">
+        <v>1</v>
+      </c>
+      <c r="T30" s="4">
         <v>900096</v>
       </c>
-      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
     </row>
-    <row r="31" spans="2:20">
+    <row r="31" spans="2:21">
       <c r="B31" s="3">
         <v>26</v>
       </c>
@@ -3967,12 +4068,15 @@
       <c r="R31" s="4">
         <v>1</v>
       </c>
-      <c r="S31" s="4">
+      <c r="S31" s="17">
+        <v>1</v>
+      </c>
+      <c r="T31" s="4">
         <v>900097</v>
       </c>
-      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
     </row>
-    <row r="32" spans="2:20">
+    <row r="32" spans="2:21">
       <c r="B32" s="3">
         <v>27</v>
       </c>
@@ -4024,12 +4128,15 @@
       <c r="R32" s="4">
         <v>1</v>
       </c>
-      <c r="S32" s="4">
+      <c r="S32" s="17">
+        <v>1</v>
+      </c>
+      <c r="T32" s="4">
         <v>900098</v>
       </c>
-      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
     </row>
-    <row r="33" spans="2:20">
+    <row r="33" spans="2:21">
       <c r="B33" s="3">
         <v>28</v>
       </c>
@@ -4081,34 +4188,38 @@
       <c r="R33" s="4">
         <v>1</v>
       </c>
-      <c r="S33" s="4">
+      <c r="S33" s="17">
+        <v>1</v>
+      </c>
+      <c r="T33" s="4">
         <v>900099</v>
       </c>
-      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
     </row>
-    <row r="34" spans="2:20">
+    <row r="34" spans="2:21">
       <c r="B34" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:20">
+    <row r="35" spans="2:21">
       <c r="B35" s="3">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="S2:S3"/>
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4119,7 +4230,7 @@
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="2" max="34" man="1"/>
-    <brk id="19" max="34" man="1"/>
+    <brk id="20" max="34" man="1"/>
   </colBreaks>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/Documents/Table_List/03_Enemy_Table.xlsx
+++ b/Documents/Table_List/03_Enemy_Table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Documents\GitHub\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E5D942-DEC8-4480-8020-00C7F13D0E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B3CCBC-2EF2-4AB0-97FE-FA0D3E0CF937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A37F908-261C-4BE0-9C6B-B14E11827940}"/>
   </bookViews>
@@ -1944,6 +1944,27 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1952,27 +1973,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2291,7 +2291,7 @@
   <dimension ref="B2:U35"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2315,33 +2315,33 @@
       <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="13" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="13" t="s">
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
       <c r="R2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="S2" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="T2" s="9" t="s">
         <v>32</v>
       </c>
       <c r="U2" s="11" t="s">
@@ -2353,7 +2353,7 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
-      <c r="F3" s="14"/>
+      <c r="F3" s="10"/>
       <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2388,8 +2388,8 @@
         <v>29</v>
       </c>
       <c r="R3" s="12"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
       <c r="U3" s="12"/>
     </row>
     <row r="4" spans="2:21">
@@ -2568,7 +2568,7 @@
       <c r="R6" s="4">
         <v>1</v>
       </c>
-      <c r="S6" s="17">
+      <c r="S6" s="8">
         <v>1</v>
       </c>
       <c r="T6" s="4">
@@ -2628,7 +2628,7 @@
       <c r="R7" s="4">
         <v>1</v>
       </c>
-      <c r="S7" s="17">
+      <c r="S7" s="8">
         <v>1</v>
       </c>
       <c r="T7" s="4">
@@ -2688,7 +2688,7 @@
       <c r="R8" s="4">
         <v>1</v>
       </c>
-      <c r="S8" s="17">
+      <c r="S8" s="8">
         <v>1</v>
       </c>
       <c r="T8" s="4">
@@ -2748,7 +2748,7 @@
       <c r="R9" s="4">
         <v>1</v>
       </c>
-      <c r="S9" s="17">
+      <c r="S9" s="8">
         <v>1</v>
       </c>
       <c r="T9" s="4">
@@ -2808,7 +2808,7 @@
       <c r="R10" s="4">
         <v>1</v>
       </c>
-      <c r="S10" s="17">
+      <c r="S10" s="8">
         <v>1</v>
       </c>
       <c r="T10" s="4">
@@ -2868,7 +2868,7 @@
       <c r="R11" s="4">
         <v>1</v>
       </c>
-      <c r="S11" s="17">
+      <c r="S11" s="8">
         <v>1</v>
       </c>
       <c r="T11" s="4">
@@ -2928,7 +2928,7 @@
       <c r="R12" s="4">
         <v>1</v>
       </c>
-      <c r="S12" s="17">
+      <c r="S12" s="8">
         <v>1</v>
       </c>
       <c r="T12" s="4">
@@ -2988,7 +2988,7 @@
       <c r="R13" s="4">
         <v>1</v>
       </c>
-      <c r="S13" s="17">
+      <c r="S13" s="8">
         <v>1</v>
       </c>
       <c r="T13" s="4">
@@ -3048,7 +3048,7 @@
       <c r="R14" s="4">
         <v>1</v>
       </c>
-      <c r="S14" s="17">
+      <c r="S14" s="8">
         <v>1</v>
       </c>
       <c r="T14" s="4">
@@ -3108,7 +3108,7 @@
       <c r="R15" s="4">
         <v>0.5</v>
       </c>
-      <c r="S15" s="17">
+      <c r="S15" s="8">
         <v>1</v>
       </c>
       <c r="T15" s="4">
@@ -3136,7 +3136,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I16" s="4">
         <v>10</v>
@@ -3168,7 +3168,7 @@
       <c r="R16" s="4">
         <v>1</v>
       </c>
-      <c r="S16" s="17">
+      <c r="S16" s="8">
         <v>1</v>
       </c>
       <c r="T16" s="4">
@@ -3228,7 +3228,7 @@
       <c r="R17" s="4">
         <v>1</v>
       </c>
-      <c r="S17" s="17">
+      <c r="S17" s="8">
         <v>1</v>
       </c>
       <c r="T17" s="4">
@@ -3288,7 +3288,7 @@
       <c r="R18" s="4">
         <v>1</v>
       </c>
-      <c r="S18" s="17">
+      <c r="S18" s="8">
         <v>1</v>
       </c>
       <c r="T18" s="4">
@@ -3348,7 +3348,7 @@
       <c r="R19" s="4">
         <v>1</v>
       </c>
-      <c r="S19" s="17">
+      <c r="S19" s="8">
         <v>1</v>
       </c>
       <c r="T19" s="4">
@@ -3408,7 +3408,7 @@
       <c r="R20" s="4">
         <v>1</v>
       </c>
-      <c r="S20" s="17">
+      <c r="S20" s="8">
         <v>1</v>
       </c>
       <c r="T20" s="4">
@@ -3468,7 +3468,7 @@
       <c r="R21" s="4">
         <v>1</v>
       </c>
-      <c r="S21" s="17">
+      <c r="S21" s="8">
         <v>1</v>
       </c>
       <c r="T21" s="4">
@@ -3528,7 +3528,7 @@
       <c r="R22" s="4">
         <v>1</v>
       </c>
-      <c r="S22" s="17">
+      <c r="S22" s="8">
         <v>1</v>
       </c>
       <c r="T22" s="4">
@@ -3588,7 +3588,7 @@
       <c r="R23" s="4">
         <v>1</v>
       </c>
-      <c r="S23" s="17">
+      <c r="S23" s="8">
         <v>1</v>
       </c>
       <c r="T23" s="4">
@@ -3648,7 +3648,7 @@
       <c r="R24" s="4">
         <v>1</v>
       </c>
-      <c r="S24" s="17">
+      <c r="S24" s="8">
         <v>1</v>
       </c>
       <c r="T24" s="4">
@@ -3708,7 +3708,7 @@
       <c r="R25" s="4">
         <v>1</v>
       </c>
-      <c r="S25" s="17">
+      <c r="S25" s="8">
         <v>1</v>
       </c>
       <c r="T25" s="4">
@@ -3768,7 +3768,7 @@
       <c r="R26" s="4">
         <v>1</v>
       </c>
-      <c r="S26" s="17">
+      <c r="S26" s="8">
         <v>1</v>
       </c>
       <c r="T26" s="4">
@@ -3828,7 +3828,7 @@
       <c r="R27" s="4">
         <v>1</v>
       </c>
-      <c r="S27" s="17">
+      <c r="S27" s="8">
         <v>1</v>
       </c>
       <c r="T27" s="4">
@@ -3888,7 +3888,7 @@
       <c r="R28" s="4">
         <v>1</v>
       </c>
-      <c r="S28" s="17">
+      <c r="S28" s="8">
         <v>1</v>
       </c>
       <c r="T28" s="4">
@@ -3948,7 +3948,7 @@
       <c r="R29" s="4">
         <v>1</v>
       </c>
-      <c r="S29" s="17">
+      <c r="S29" s="8">
         <v>1</v>
       </c>
       <c r="T29" s="4">
@@ -4008,7 +4008,7 @@
       <c r="R30" s="4">
         <v>1</v>
       </c>
-      <c r="S30" s="17">
+      <c r="S30" s="8">
         <v>1</v>
       </c>
       <c r="T30" s="4">
@@ -4068,7 +4068,7 @@
       <c r="R31" s="4">
         <v>1</v>
       </c>
-      <c r="S31" s="17">
+      <c r="S31" s="8">
         <v>1</v>
       </c>
       <c r="T31" s="4">
@@ -4128,7 +4128,7 @@
       <c r="R32" s="4">
         <v>1</v>
       </c>
-      <c r="S32" s="17">
+      <c r="S32" s="8">
         <v>1</v>
       </c>
       <c r="T32" s="4">
@@ -4188,7 +4188,7 @@
       <c r="R33" s="4">
         <v>1</v>
       </c>
-      <c r="S33" s="17">
+      <c r="S33" s="8">
         <v>1</v>
       </c>
       <c r="T33" s="4">
@@ -4208,18 +4208,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="S2:S3"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Table_List/03_Enemy_Table.xlsx
+++ b/Documents/Table_List/03_Enemy_Table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Documents\GitHub\DefensiveDungeon\Documents\Table_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B3CCBC-2EF2-4AB0-97FE-FA0D3E0CF937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322919CA-41A3-4A4F-B6FD-7126E1C91F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A37F908-261C-4BE0-9C6B-B14E11827940}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Enemy_Table" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Enemy_Table!$B$5:$U$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Enemy_Table!$A$1:$U$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -1947,10 +1948,13 @@
     <xf numFmtId="177" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1959,20 +1963,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2291,7 +2292,10 @@
   <dimension ref="B2:U35"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2303,57 +2307,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21">
-      <c r="B2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="9" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="9" t="s">
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="11" t="s">
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="S2" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="2:21">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="10"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="15"/>
       <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2387,10 +2391,10 @@
       <c r="Q3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="12"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="12"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="13"/>
     </row>
     <row r="4" spans="2:21">
       <c r="B4" s="2" t="s">
@@ -4207,19 +4211,20 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B5:U5" xr:uid="{13258274-53B7-4F09-920C-41EC9C872C80}"/>
   <mergeCells count="12">
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="S2:S3"/>
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="S2:S3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Table_List/03_Enemy_Table.xlsx
+++ b/Documents/Table_List/03_Enemy_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322919CA-41A3-4A4F-B6FD-7126E1C91F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FAAB5F-1652-492F-B250-B831DBC43A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A37F908-261C-4BE0-9C6B-B14E11827940}"/>
   </bookViews>
@@ -1948,6 +1948,24 @@
     <xf numFmtId="177" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1956,24 +1974,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2295,7 +2295,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomRight" activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2303,61 +2303,64 @@
     <col min="1" max="1" width="2.25" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="12" max="14" width="0" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="0" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="38.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:21">
-      <c r="B2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="14" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="14" t="s">
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="12" t="s">
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="S2" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="T2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="U2" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="2:21">
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="15"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="10"/>
       <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2391,10 +2394,10 @@
       <c r="Q3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="13"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="13"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="12"/>
     </row>
     <row r="4" spans="2:21">
       <c r="B4" s="2" t="s">
@@ -4213,18 +4216,18 @@
   </sheetData>
   <autoFilter ref="B5:U5" xr:uid="{13258274-53B7-4F09-920C-41EC9C872C80}"/>
   <mergeCells count="12">
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="S2:S3"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Table_List/03_Enemy_Table.xlsx
+++ b/Documents/Table_List/03_Enemy_Table.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Documents\GitHub\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FAAB5F-1652-492F-B250-B831DBC43A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E07981-4151-47A7-B75B-51D48C23C3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A37F908-261C-4BE0-9C6B-B14E11827940}"/>
+    <workbookView xWindow="1500" yWindow="2715" windowWidth="21600" windowHeight="11385" xr2:uid="{5A37F908-261C-4BE0-9C6B-B14E11827940}"/>
   </bookViews>
   <sheets>
     <sheet name="Enemy_Table" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Enemy_Table!$B$5:$U$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Enemy_Table!$A$1:$U$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Enemy_Table!$A$1:$U$63</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1102,7 +1102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
   <si>
     <t>번호</t>
   </si>
@@ -1674,16 +1674,30 @@
     <t>Atk_Speed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기사</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1769,6 +1783,13 @@
       <color indexed="81"/>
       <name val="돋움"/>
       <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -1920,7 +1941,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1948,10 +1969,13 @@
     <xf numFmtId="177" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1960,20 +1984,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2289,13 +2319,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13258274-53B7-4F09-920C-41EC9C872C80}">
-  <dimension ref="B2:U35"/>
+  <dimension ref="B2:U57"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="O22" sqref="O22"/>
+      <selection pane="bottomRight" activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2310,57 +2340,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21">
-      <c r="B2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="9" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="9" t="s">
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="11" t="s">
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="S2" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="2:21">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="10"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="15"/>
       <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2394,10 +2424,10 @@
       <c r="Q3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="12"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="12"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="13"/>
     </row>
     <row r="4" spans="2:21">
       <c r="B4" s="2" t="s">
@@ -4207,38 +4237,1354 @@
       <c r="B34" s="3">
         <v>29</v>
       </c>
+      <c r="C34" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="4">
+        <v>200029</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4">
+        <v>1</v>
+      </c>
+      <c r="H34" s="19">
+        <v>50</v>
+      </c>
+      <c r="I34" s="4">
+        <v>10</v>
+      </c>
+      <c r="J34" s="4">
+        <v>0</v>
+      </c>
+      <c r="K34" s="4">
+        <v>2</v>
+      </c>
+      <c r="L34" s="4">
+        <v>0</v>
+      </c>
+      <c r="M34" s="4">
+        <v>0</v>
+      </c>
+      <c r="N34" s="4">
+        <v>0</v>
+      </c>
+      <c r="O34" s="4">
+        <v>300010</v>
+      </c>
+      <c r="P34" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>0</v>
+      </c>
+      <c r="R34" s="4">
+        <v>1</v>
+      </c>
+      <c r="S34" s="20">
+        <v>1</v>
+      </c>
+      <c r="T34" s="4">
+        <v>900094</v>
+      </c>
+      <c r="U34" s="18"/>
     </row>
     <row r="35" spans="2:21">
       <c r="B35" s="3">
         <v>30</v>
       </c>
+      <c r="C35" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="4">
+        <v>200030</v>
+      </c>
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
+      <c r="G35" s="4">
+        <v>1</v>
+      </c>
+      <c r="H35" s="19">
+        <v>70</v>
+      </c>
+      <c r="I35" s="4">
+        <v>10</v>
+      </c>
+      <c r="J35" s="4">
+        <v>0</v>
+      </c>
+      <c r="K35" s="4">
+        <v>2</v>
+      </c>
+      <c r="L35" s="4">
+        <v>0</v>
+      </c>
+      <c r="M35" s="4">
+        <v>0</v>
+      </c>
+      <c r="N35" s="4">
+        <v>0</v>
+      </c>
+      <c r="O35" s="4">
+        <v>300010</v>
+      </c>
+      <c r="P35" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>0</v>
+      </c>
+      <c r="R35" s="4">
+        <v>1</v>
+      </c>
+      <c r="S35" s="20">
+        <v>1</v>
+      </c>
+      <c r="T35" s="4">
+        <v>900094</v>
+      </c>
+      <c r="U35" s="18"/>
+    </row>
+    <row r="36" spans="2:21">
+      <c r="B36" s="3">
+        <v>31</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="4">
+        <v>200031</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4">
+        <v>1</v>
+      </c>
+      <c r="H36" s="19">
+        <v>98</v>
+      </c>
+      <c r="I36" s="4">
+        <v>10</v>
+      </c>
+      <c r="J36" s="4">
+        <v>0</v>
+      </c>
+      <c r="K36" s="4">
+        <v>2</v>
+      </c>
+      <c r="L36" s="4">
+        <v>0</v>
+      </c>
+      <c r="M36" s="4">
+        <v>0</v>
+      </c>
+      <c r="N36" s="4">
+        <v>0</v>
+      </c>
+      <c r="O36" s="4">
+        <v>300010</v>
+      </c>
+      <c r="P36" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>0</v>
+      </c>
+      <c r="R36" s="4">
+        <v>1</v>
+      </c>
+      <c r="S36" s="20">
+        <v>1</v>
+      </c>
+      <c r="T36" s="4">
+        <v>900094</v>
+      </c>
+      <c r="U36" s="18"/>
+    </row>
+    <row r="37" spans="2:21">
+      <c r="B37" s="3">
+        <v>32</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" s="4">
+        <v>200032</v>
+      </c>
+      <c r="F37" s="4">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4">
+        <v>1</v>
+      </c>
+      <c r="H37" s="19">
+        <v>127.4</v>
+      </c>
+      <c r="I37" s="4">
+        <v>10</v>
+      </c>
+      <c r="J37" s="4">
+        <v>0</v>
+      </c>
+      <c r="K37" s="4">
+        <v>2</v>
+      </c>
+      <c r="L37" s="4">
+        <v>0</v>
+      </c>
+      <c r="M37" s="4">
+        <v>0</v>
+      </c>
+      <c r="N37" s="4">
+        <v>0</v>
+      </c>
+      <c r="O37" s="4">
+        <v>300010</v>
+      </c>
+      <c r="P37" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>0</v>
+      </c>
+      <c r="R37" s="4">
+        <v>1</v>
+      </c>
+      <c r="S37" s="20">
+        <v>1</v>
+      </c>
+      <c r="T37" s="4">
+        <v>900094</v>
+      </c>
+      <c r="U37" s="18"/>
+    </row>
+    <row r="38" spans="2:21">
+      <c r="B38" s="3">
+        <v>33</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="4">
+        <v>200033</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4">
+        <v>1</v>
+      </c>
+      <c r="H38" s="19">
+        <v>152.88</v>
+      </c>
+      <c r="I38" s="4">
+        <v>10</v>
+      </c>
+      <c r="J38" s="4">
+        <v>0</v>
+      </c>
+      <c r="K38" s="4">
+        <v>2</v>
+      </c>
+      <c r="L38" s="4">
+        <v>0</v>
+      </c>
+      <c r="M38" s="4">
+        <v>0</v>
+      </c>
+      <c r="N38" s="4">
+        <v>0</v>
+      </c>
+      <c r="O38" s="4">
+        <v>300010</v>
+      </c>
+      <c r="P38" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>0</v>
+      </c>
+      <c r="R38" s="4">
+        <v>1</v>
+      </c>
+      <c r="S38" s="20">
+        <v>1</v>
+      </c>
+      <c r="T38" s="4">
+        <v>900094</v>
+      </c>
+      <c r="U38" s="18"/>
+    </row>
+    <row r="39" spans="2:21">
+      <c r="B39" s="3">
+        <v>34</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" s="4">
+        <v>200034</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
+      <c r="H39" s="19">
+        <v>183.45599999999999</v>
+      </c>
+      <c r="I39" s="4">
+        <v>10</v>
+      </c>
+      <c r="J39" s="4">
+        <v>0</v>
+      </c>
+      <c r="K39" s="4">
+        <v>2</v>
+      </c>
+      <c r="L39" s="4">
+        <v>0</v>
+      </c>
+      <c r="M39" s="4">
+        <v>0</v>
+      </c>
+      <c r="N39" s="4">
+        <v>0</v>
+      </c>
+      <c r="O39" s="4">
+        <v>300010</v>
+      </c>
+      <c r="P39" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>0</v>
+      </c>
+      <c r="R39" s="4">
+        <v>1</v>
+      </c>
+      <c r="S39" s="20">
+        <v>1</v>
+      </c>
+      <c r="T39" s="4">
+        <v>900094</v>
+      </c>
+      <c r="U39" s="18"/>
+    </row>
+    <row r="40" spans="2:21">
+      <c r="B40" s="3">
+        <v>35</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="4">
+        <v>200035</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1</v>
+      </c>
+      <c r="G40" s="4">
+        <v>1</v>
+      </c>
+      <c r="H40" s="19">
+        <v>220.14719999999997</v>
+      </c>
+      <c r="I40" s="4">
+        <v>10</v>
+      </c>
+      <c r="J40" s="4">
+        <v>0</v>
+      </c>
+      <c r="K40" s="4">
+        <v>2</v>
+      </c>
+      <c r="L40" s="4">
+        <v>0</v>
+      </c>
+      <c r="M40" s="4">
+        <v>0</v>
+      </c>
+      <c r="N40" s="4">
+        <v>0</v>
+      </c>
+      <c r="O40" s="4">
+        <v>300010</v>
+      </c>
+      <c r="P40" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="4">
+        <v>0</v>
+      </c>
+      <c r="R40" s="4">
+        <v>1</v>
+      </c>
+      <c r="S40" s="20">
+        <v>1</v>
+      </c>
+      <c r="T40" s="4">
+        <v>900094</v>
+      </c>
+      <c r="U40" s="18"/>
+    </row>
+    <row r="41" spans="2:21">
+      <c r="B41" s="3">
+        <v>36</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" s="4">
+        <v>200036</v>
+      </c>
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4">
+        <v>1</v>
+      </c>
+      <c r="H41" s="19">
+        <v>264.17663999999996</v>
+      </c>
+      <c r="I41" s="4">
+        <v>10</v>
+      </c>
+      <c r="J41" s="4">
+        <v>0</v>
+      </c>
+      <c r="K41" s="4">
+        <v>2</v>
+      </c>
+      <c r="L41" s="4">
+        <v>0</v>
+      </c>
+      <c r="M41" s="4">
+        <v>0</v>
+      </c>
+      <c r="N41" s="4">
+        <v>0</v>
+      </c>
+      <c r="O41" s="4">
+        <v>300010</v>
+      </c>
+      <c r="P41" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>0</v>
+      </c>
+      <c r="R41" s="4">
+        <v>1</v>
+      </c>
+      <c r="S41" s="20">
+        <v>1</v>
+      </c>
+      <c r="T41" s="4">
+        <v>900094</v>
+      </c>
+      <c r="U41" s="18"/>
+    </row>
+    <row r="42" spans="2:21">
+      <c r="B42" s="3">
+        <v>37</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="4">
+        <v>200037</v>
+      </c>
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
+      <c r="G42" s="4">
+        <v>1</v>
+      </c>
+      <c r="H42" s="19">
+        <v>317.01196799999997</v>
+      </c>
+      <c r="I42" s="4">
+        <v>10</v>
+      </c>
+      <c r="J42" s="4">
+        <v>0</v>
+      </c>
+      <c r="K42" s="4">
+        <v>2</v>
+      </c>
+      <c r="L42" s="4">
+        <v>0</v>
+      </c>
+      <c r="M42" s="4">
+        <v>0</v>
+      </c>
+      <c r="N42" s="4">
+        <v>0</v>
+      </c>
+      <c r="O42" s="4">
+        <v>300010</v>
+      </c>
+      <c r="P42" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>0</v>
+      </c>
+      <c r="R42" s="4">
+        <v>1</v>
+      </c>
+      <c r="S42" s="20">
+        <v>1</v>
+      </c>
+      <c r="T42" s="4">
+        <v>900094</v>
+      </c>
+      <c r="U42" s="18"/>
+    </row>
+    <row r="43" spans="2:21">
+      <c r="B43" s="3">
+        <v>38</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="4">
+        <v>200038</v>
+      </c>
+      <c r="F43" s="4">
+        <v>1</v>
+      </c>
+      <c r="G43" s="4">
+        <v>1</v>
+      </c>
+      <c r="H43" s="19">
+        <v>380.41436159999995</v>
+      </c>
+      <c r="I43" s="4">
+        <v>10</v>
+      </c>
+      <c r="J43" s="4">
+        <v>0</v>
+      </c>
+      <c r="K43" s="4">
+        <v>2</v>
+      </c>
+      <c r="L43" s="4">
+        <v>0</v>
+      </c>
+      <c r="M43" s="4">
+        <v>0</v>
+      </c>
+      <c r="N43" s="4">
+        <v>0</v>
+      </c>
+      <c r="O43" s="4">
+        <v>300010</v>
+      </c>
+      <c r="P43" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="4">
+        <v>0</v>
+      </c>
+      <c r="R43" s="4">
+        <v>1</v>
+      </c>
+      <c r="S43" s="20">
+        <v>1</v>
+      </c>
+      <c r="T43" s="4">
+        <v>900094</v>
+      </c>
+      <c r="U43" s="18"/>
+    </row>
+    <row r="44" spans="2:21">
+      <c r="B44" s="3">
+        <v>39</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="4">
+        <v>200039</v>
+      </c>
+      <c r="F44" s="4">
+        <v>1</v>
+      </c>
+      <c r="G44" s="4">
+        <v>1</v>
+      </c>
+      <c r="H44" s="19">
+        <v>418.45579776</v>
+      </c>
+      <c r="I44" s="4">
+        <v>10</v>
+      </c>
+      <c r="J44" s="4">
+        <v>0</v>
+      </c>
+      <c r="K44" s="4">
+        <v>2</v>
+      </c>
+      <c r="L44" s="4">
+        <v>0</v>
+      </c>
+      <c r="M44" s="4">
+        <v>0</v>
+      </c>
+      <c r="N44" s="4">
+        <v>0</v>
+      </c>
+      <c r="O44" s="4">
+        <v>300010</v>
+      </c>
+      <c r="P44" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>0</v>
+      </c>
+      <c r="R44" s="4">
+        <v>1</v>
+      </c>
+      <c r="S44" s="20">
+        <v>1</v>
+      </c>
+      <c r="T44" s="4">
+        <v>900094</v>
+      </c>
+      <c r="U44" s="18"/>
+    </row>
+    <row r="45" spans="2:21">
+      <c r="B45" s="3">
+        <v>40</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" s="4">
+        <v>200040</v>
+      </c>
+      <c r="F45" s="4">
+        <v>1</v>
+      </c>
+      <c r="G45" s="4">
+        <v>1</v>
+      </c>
+      <c r="H45" s="19">
+        <v>460.30137753600002</v>
+      </c>
+      <c r="I45" s="4">
+        <v>10</v>
+      </c>
+      <c r="J45" s="4">
+        <v>0</v>
+      </c>
+      <c r="K45" s="4">
+        <v>2</v>
+      </c>
+      <c r="L45" s="4">
+        <v>0</v>
+      </c>
+      <c r="M45" s="4">
+        <v>0</v>
+      </c>
+      <c r="N45" s="4">
+        <v>0</v>
+      </c>
+      <c r="O45" s="4">
+        <v>300010</v>
+      </c>
+      <c r="P45" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="4">
+        <v>0</v>
+      </c>
+      <c r="R45" s="4">
+        <v>1</v>
+      </c>
+      <c r="S45" s="20">
+        <v>1</v>
+      </c>
+      <c r="T45" s="4">
+        <v>900094</v>
+      </c>
+      <c r="U45" s="18"/>
+    </row>
+    <row r="46" spans="2:21">
+      <c r="B46" s="3">
+        <v>41</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" s="4">
+        <v>200041</v>
+      </c>
+      <c r="F46" s="4">
+        <v>1</v>
+      </c>
+      <c r="G46" s="4">
+        <v>1</v>
+      </c>
+      <c r="H46" s="19">
+        <v>506.33151528960008</v>
+      </c>
+      <c r="I46" s="4">
+        <v>10</v>
+      </c>
+      <c r="J46" s="4">
+        <v>0</v>
+      </c>
+      <c r="K46" s="4">
+        <v>2</v>
+      </c>
+      <c r="L46" s="4">
+        <v>0</v>
+      </c>
+      <c r="M46" s="4">
+        <v>0</v>
+      </c>
+      <c r="N46" s="4">
+        <v>0</v>
+      </c>
+      <c r="O46" s="4">
+        <v>300010</v>
+      </c>
+      <c r="P46" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="4">
+        <v>0</v>
+      </c>
+      <c r="R46" s="4">
+        <v>1</v>
+      </c>
+      <c r="S46" s="20">
+        <v>1</v>
+      </c>
+      <c r="T46" s="4">
+        <v>900094</v>
+      </c>
+      <c r="U46" s="18"/>
+    </row>
+    <row r="47" spans="2:21">
+      <c r="B47" s="3">
+        <v>42</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" s="4">
+        <v>200042</v>
+      </c>
+      <c r="F47" s="4">
+        <v>1</v>
+      </c>
+      <c r="G47" s="4">
+        <v>1</v>
+      </c>
+      <c r="H47" s="19">
+        <v>556.96466681856009</v>
+      </c>
+      <c r="I47" s="4">
+        <v>10</v>
+      </c>
+      <c r="J47" s="4">
+        <v>0</v>
+      </c>
+      <c r="K47" s="4">
+        <v>2</v>
+      </c>
+      <c r="L47" s="4">
+        <v>0</v>
+      </c>
+      <c r="M47" s="4">
+        <v>0</v>
+      </c>
+      <c r="N47" s="4">
+        <v>0</v>
+      </c>
+      <c r="O47" s="4">
+        <v>300010</v>
+      </c>
+      <c r="P47" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="4">
+        <v>0</v>
+      </c>
+      <c r="R47" s="4">
+        <v>1</v>
+      </c>
+      <c r="S47" s="20">
+        <v>1</v>
+      </c>
+      <c r="T47" s="4">
+        <v>900094</v>
+      </c>
+      <c r="U47" s="18"/>
+    </row>
+    <row r="48" spans="2:21">
+      <c r="B48" s="3">
+        <v>43</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" s="4">
+        <v>200043</v>
+      </c>
+      <c r="F48" s="4">
+        <v>1</v>
+      </c>
+      <c r="G48" s="4">
+        <v>1</v>
+      </c>
+      <c r="H48" s="19">
+        <v>668.35760018227211</v>
+      </c>
+      <c r="I48" s="4">
+        <v>10</v>
+      </c>
+      <c r="J48" s="4">
+        <v>0</v>
+      </c>
+      <c r="K48" s="4">
+        <v>2</v>
+      </c>
+      <c r="L48" s="4">
+        <v>0</v>
+      </c>
+      <c r="M48" s="4">
+        <v>0</v>
+      </c>
+      <c r="N48" s="4">
+        <v>0</v>
+      </c>
+      <c r="O48" s="4">
+        <v>300010</v>
+      </c>
+      <c r="P48" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="4">
+        <v>0</v>
+      </c>
+      <c r="R48" s="4">
+        <v>1</v>
+      </c>
+      <c r="S48" s="20">
+        <v>1</v>
+      </c>
+      <c r="T48" s="4">
+        <v>900094</v>
+      </c>
+      <c r="U48" s="18"/>
+    </row>
+    <row r="49" spans="2:21">
+      <c r="B49" s="3">
+        <v>44</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" s="4">
+        <v>200044</v>
+      </c>
+      <c r="F49" s="4">
+        <v>1</v>
+      </c>
+      <c r="G49" s="4">
+        <v>1</v>
+      </c>
+      <c r="H49" s="19">
+        <v>802.02912021872646</v>
+      </c>
+      <c r="I49" s="4">
+        <v>10</v>
+      </c>
+      <c r="J49" s="4">
+        <v>0</v>
+      </c>
+      <c r="K49" s="4">
+        <v>2</v>
+      </c>
+      <c r="L49" s="4">
+        <v>0</v>
+      </c>
+      <c r="M49" s="4">
+        <v>0</v>
+      </c>
+      <c r="N49" s="4">
+        <v>0</v>
+      </c>
+      <c r="O49" s="4">
+        <v>300010</v>
+      </c>
+      <c r="P49" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="4">
+        <v>0</v>
+      </c>
+      <c r="R49" s="4">
+        <v>1</v>
+      </c>
+      <c r="S49" s="20">
+        <v>1</v>
+      </c>
+      <c r="T49" s="4">
+        <v>900094</v>
+      </c>
+      <c r="U49" s="18"/>
+    </row>
+    <row r="50" spans="2:21">
+      <c r="B50" s="3">
+        <v>45</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" s="4">
+        <v>200045</v>
+      </c>
+      <c r="F50" s="4">
+        <v>1</v>
+      </c>
+      <c r="G50" s="4">
+        <v>1</v>
+      </c>
+      <c r="H50" s="19">
+        <v>882.23203224059921</v>
+      </c>
+      <c r="I50" s="4">
+        <v>10</v>
+      </c>
+      <c r="J50" s="4">
+        <v>0</v>
+      </c>
+      <c r="K50" s="4">
+        <v>2</v>
+      </c>
+      <c r="L50" s="4">
+        <v>0</v>
+      </c>
+      <c r="M50" s="4">
+        <v>0</v>
+      </c>
+      <c r="N50" s="4">
+        <v>0</v>
+      </c>
+      <c r="O50" s="4">
+        <v>300010</v>
+      </c>
+      <c r="P50" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="4">
+        <v>0</v>
+      </c>
+      <c r="R50" s="4">
+        <v>1</v>
+      </c>
+      <c r="S50" s="20">
+        <v>1</v>
+      </c>
+      <c r="T50" s="4">
+        <v>900094</v>
+      </c>
+      <c r="U50" s="18"/>
+    </row>
+    <row r="51" spans="2:21">
+      <c r="B51" s="3">
+        <v>46</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" s="4">
+        <v>200046</v>
+      </c>
+      <c r="F51" s="4">
+        <v>1</v>
+      </c>
+      <c r="G51" s="4">
+        <v>1</v>
+      </c>
+      <c r="H51" s="19">
+        <v>970.45523546465915</v>
+      </c>
+      <c r="I51" s="4">
+        <v>10</v>
+      </c>
+      <c r="J51" s="4">
+        <v>0</v>
+      </c>
+      <c r="K51" s="4">
+        <v>2</v>
+      </c>
+      <c r="L51" s="4">
+        <v>0</v>
+      </c>
+      <c r="M51" s="4">
+        <v>0</v>
+      </c>
+      <c r="N51" s="4">
+        <v>0</v>
+      </c>
+      <c r="O51" s="4">
+        <v>300010</v>
+      </c>
+      <c r="P51" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="4">
+        <v>0</v>
+      </c>
+      <c r="R51" s="4">
+        <v>1</v>
+      </c>
+      <c r="S51" s="20">
+        <v>1</v>
+      </c>
+      <c r="T51" s="4">
+        <v>900094</v>
+      </c>
+      <c r="U51" s="18"/>
+    </row>
+    <row r="52" spans="2:21">
+      <c r="B52" s="3">
+        <v>47</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52" s="4">
+        <v>200047</v>
+      </c>
+      <c r="F52" s="4">
+        <v>1</v>
+      </c>
+      <c r="G52" s="4">
+        <v>1</v>
+      </c>
+      <c r="H52" s="19">
+        <v>1067.5007590111252</v>
+      </c>
+      <c r="I52" s="4">
+        <v>10</v>
+      </c>
+      <c r="J52" s="4">
+        <v>0</v>
+      </c>
+      <c r="K52" s="4">
+        <v>2</v>
+      </c>
+      <c r="L52" s="4">
+        <v>0</v>
+      </c>
+      <c r="M52" s="4">
+        <v>0</v>
+      </c>
+      <c r="N52" s="4">
+        <v>0</v>
+      </c>
+      <c r="O52" s="4">
+        <v>300010</v>
+      </c>
+      <c r="P52" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="4">
+        <v>0</v>
+      </c>
+      <c r="R52" s="4">
+        <v>1</v>
+      </c>
+      <c r="S52" s="20">
+        <v>1</v>
+      </c>
+      <c r="T52" s="4">
+        <v>900094</v>
+      </c>
+      <c r="U52" s="18"/>
+    </row>
+    <row r="53" spans="2:21">
+      <c r="B53" s="3">
+        <v>48</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" s="4">
+        <v>200048</v>
+      </c>
+      <c r="F53" s="4">
+        <v>1</v>
+      </c>
+      <c r="G53" s="4">
+        <v>1</v>
+      </c>
+      <c r="H53" s="19">
+        <v>1174.2508349122379</v>
+      </c>
+      <c r="I53" s="4">
+        <v>10</v>
+      </c>
+      <c r="J53" s="4">
+        <v>0</v>
+      </c>
+      <c r="K53" s="4">
+        <v>2</v>
+      </c>
+      <c r="L53" s="4">
+        <v>0</v>
+      </c>
+      <c r="M53" s="4">
+        <v>0</v>
+      </c>
+      <c r="N53" s="4">
+        <v>0</v>
+      </c>
+      <c r="O53" s="4">
+        <v>300010</v>
+      </c>
+      <c r="P53" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="4">
+        <v>0</v>
+      </c>
+      <c r="R53" s="4">
+        <v>1</v>
+      </c>
+      <c r="S53" s="20">
+        <v>1</v>
+      </c>
+      <c r="T53" s="4">
+        <v>900094</v>
+      </c>
+      <c r="U53" s="18"/>
+    </row>
+    <row r="54" spans="2:21">
+      <c r="B54" s="3">
+        <v>49</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E54" s="4">
+        <v>200049</v>
+      </c>
+      <c r="F54" s="4">
+        <v>1</v>
+      </c>
+      <c r="G54" s="4">
+        <v>1</v>
+      </c>
+      <c r="H54" s="19">
+        <v>1200</v>
+      </c>
+      <c r="I54" s="4">
+        <v>10</v>
+      </c>
+      <c r="J54" s="4">
+        <v>0</v>
+      </c>
+      <c r="K54" s="4">
+        <v>2</v>
+      </c>
+      <c r="L54" s="4">
+        <v>0</v>
+      </c>
+      <c r="M54" s="4">
+        <v>0</v>
+      </c>
+      <c r="N54" s="4">
+        <v>0</v>
+      </c>
+      <c r="O54" s="4">
+        <v>300010</v>
+      </c>
+      <c r="P54" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="4">
+        <v>0</v>
+      </c>
+      <c r="R54" s="4">
+        <v>1</v>
+      </c>
+      <c r="S54" s="20">
+        <v>1</v>
+      </c>
+      <c r="T54" s="4">
+        <v>900094</v>
+      </c>
+      <c r="U54" s="18"/>
+    </row>
+    <row r="55" spans="2:21">
+      <c r="B55" s="3">
+        <v>50</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E55" s="4">
+        <v>200050</v>
+      </c>
+      <c r="F55" s="4">
+        <v>1</v>
+      </c>
+      <c r="G55" s="4">
+        <v>1</v>
+      </c>
+      <c r="H55" s="19">
+        <v>10000</v>
+      </c>
+      <c r="I55" s="4">
+        <v>10</v>
+      </c>
+      <c r="J55" s="4">
+        <v>0</v>
+      </c>
+      <c r="K55" s="4">
+        <v>2</v>
+      </c>
+      <c r="L55" s="4">
+        <v>0</v>
+      </c>
+      <c r="M55" s="4">
+        <v>0</v>
+      </c>
+      <c r="N55" s="4">
+        <v>0</v>
+      </c>
+      <c r="O55" s="4">
+        <v>300010</v>
+      </c>
+      <c r="P55" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="4">
+        <v>0</v>
+      </c>
+      <c r="R55" s="4">
+        <v>1</v>
+      </c>
+      <c r="S55" s="20">
+        <v>1</v>
+      </c>
+      <c r="T55" s="4">
+        <v>900094</v>
+      </c>
+      <c r="U55" s="18"/>
+    </row>
+    <row r="56" spans="2:21">
+      <c r="B56" s="3"/>
+    </row>
+    <row r="57" spans="2:21">
+      <c r="B57" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="B5:U5" xr:uid="{13258274-53B7-4F09-920C-41EC9C872C80}"/>
   <mergeCells count="12">
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="S2:S3"/>
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="S2:S3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="3" max="19" man="1"/>
-    <brk id="33" max="19" man="1"/>
+    <brk id="3" max="20" man="1"/>
+    <brk id="55" max="20" man="1"/>
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
-    <brk id="2" max="34" man="1"/>
-    <brk id="20" max="34" man="1"/>
+    <brk id="2" max="62" man="1"/>
+    <brk id="20" max="62" man="1"/>
   </colBreaks>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/Documents/Table_List/03_Enemy_Table.xlsx
+++ b/Documents/Table_List/03_Enemy_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Documents\GitHub\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E07981-4151-47A7-B75B-51D48C23C3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2687FF-3E82-42C5-A73C-B817B6B62A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="2715" windowWidth="21600" windowHeight="11385" xr2:uid="{5A37F908-261C-4BE0-9C6B-B14E11827940}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A37F908-261C-4BE0-9C6B-B14E11827940}"/>
   </bookViews>
   <sheets>
     <sheet name="Enemy_Table" sheetId="2" r:id="rId1"/>
@@ -1969,6 +1969,33 @@
     <xf numFmtId="177" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1977,33 +2004,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2322,10 +2322,10 @@
   <dimension ref="B2:U57"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D58" sqref="D58"/>
+      <selection pane="bottomRight" activeCell="U53" sqref="U53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2340,57 +2340,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21">
-      <c r="B2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="14" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="14" t="s">
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="12" t="s">
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="14" t="s">
         <v>36</v>
       </c>
       <c r="S2" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="T2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="U2" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="2:21">
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2424,10 +2424,10 @@
       <c r="Q3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="13"/>
+      <c r="R3" s="15"/>
       <c r="S3" s="16"/>
       <c r="T3" s="16"/>
-      <c r="U3" s="13"/>
+      <c r="U3" s="15"/>
     </row>
     <row r="4" spans="2:21">
       <c r="B4" s="2" t="s">
@@ -4252,11 +4252,11 @@
       <c r="G34" s="4">
         <v>1</v>
       </c>
-      <c r="H34" s="19">
+      <c r="H34" s="10">
         <v>50</v>
       </c>
       <c r="I34" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J34" s="4">
         <v>0</v>
@@ -4285,13 +4285,13 @@
       <c r="R34" s="4">
         <v>1</v>
       </c>
-      <c r="S34" s="20">
+      <c r="S34" s="11">
         <v>1</v>
       </c>
       <c r="T34" s="4">
         <v>900094</v>
       </c>
-      <c r="U34" s="18"/>
+      <c r="U34" s="9"/>
     </row>
     <row r="35" spans="2:21">
       <c r="B35" s="3">
@@ -4312,11 +4312,11 @@
       <c r="G35" s="4">
         <v>1</v>
       </c>
-      <c r="H35" s="19">
+      <c r="H35" s="10">
         <v>70</v>
       </c>
       <c r="I35" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J35" s="4">
         <v>0</v>
@@ -4345,23 +4345,23 @@
       <c r="R35" s="4">
         <v>1</v>
       </c>
-      <c r="S35" s="20">
+      <c r="S35" s="11">
         <v>1</v>
       </c>
       <c r="T35" s="4">
         <v>900094</v>
       </c>
-      <c r="U35" s="18"/>
+      <c r="U35" s="9"/>
     </row>
     <row r="36" spans="2:21">
       <c r="B36" s="3">
         <v>31</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E36" s="4">
         <v>200031</v>
@@ -4372,11 +4372,11 @@
       <c r="G36" s="4">
         <v>1</v>
       </c>
-      <c r="H36" s="19">
+      <c r="H36" s="10">
         <v>98</v>
       </c>
       <c r="I36" s="4">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J36" s="4">
         <v>0</v>
@@ -4405,13 +4405,13 @@
       <c r="R36" s="4">
         <v>1</v>
       </c>
-      <c r="S36" s="20">
+      <c r="S36" s="11">
         <v>1</v>
       </c>
       <c r="T36" s="4">
-        <v>900094</v>
-      </c>
-      <c r="U36" s="18"/>
+        <v>900095</v>
+      </c>
+      <c r="U36" s="9"/>
     </row>
     <row r="37" spans="2:21">
       <c r="B37" s="3">
@@ -4432,11 +4432,11 @@
       <c r="G37" s="4">
         <v>1</v>
       </c>
-      <c r="H37" s="19">
+      <c r="H37" s="10">
         <v>127.4</v>
       </c>
       <c r="I37" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J37" s="4">
         <v>0</v>
@@ -4465,23 +4465,23 @@
       <c r="R37" s="4">
         <v>1</v>
       </c>
-      <c r="S37" s="20">
+      <c r="S37" s="11">
         <v>1</v>
       </c>
       <c r="T37" s="4">
         <v>900094</v>
       </c>
-      <c r="U37" s="18"/>
+      <c r="U37" s="9"/>
     </row>
     <row r="38" spans="2:21">
       <c r="B38" s="3">
         <v>33</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="E38" s="4">
         <v>200033</v>
@@ -4492,11 +4492,11 @@
       <c r="G38" s="4">
         <v>1</v>
       </c>
-      <c r="H38" s="19">
+      <c r="H38" s="10">
         <v>152.88</v>
       </c>
       <c r="I38" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J38" s="4">
         <v>0</v>
@@ -4514,10 +4514,10 @@
         <v>0</v>
       </c>
       <c r="O38" s="4">
-        <v>300010</v>
-      </c>
-      <c r="P38" s="4">
-        <v>0</v>
+        <v>300008</v>
+      </c>
+      <c r="P38" s="5">
+        <v>300149</v>
       </c>
       <c r="Q38" s="4">
         <v>0</v>
@@ -4525,13 +4525,13 @@
       <c r="R38" s="4">
         <v>1</v>
       </c>
-      <c r="S38" s="20">
+      <c r="S38" s="8">
         <v>1</v>
       </c>
       <c r="T38" s="4">
-        <v>900094</v>
-      </c>
-      <c r="U38" s="18"/>
+        <v>900085</v>
+      </c>
+      <c r="U38" s="9"/>
     </row>
     <row r="39" spans="2:21">
       <c r="B39" s="3">
@@ -4552,7 +4552,7 @@
       <c r="G39" s="4">
         <v>1</v>
       </c>
-      <c r="H39" s="19">
+      <c r="H39" s="10">
         <v>183.45599999999999</v>
       </c>
       <c r="I39" s="4">
@@ -4585,23 +4585,23 @@
       <c r="R39" s="4">
         <v>1</v>
       </c>
-      <c r="S39" s="20">
+      <c r="S39" s="11">
         <v>1</v>
       </c>
       <c r="T39" s="4">
         <v>900094</v>
       </c>
-      <c r="U39" s="18"/>
+      <c r="U39" s="9"/>
     </row>
     <row r="40" spans="2:21">
       <c r="B40" s="3">
         <v>35</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E40" s="4">
         <v>200035</v>
@@ -4612,11 +4612,11 @@
       <c r="G40" s="4">
         <v>1</v>
       </c>
-      <c r="H40" s="19">
+      <c r="H40" s="10">
         <v>220.14719999999997</v>
       </c>
       <c r="I40" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J40" s="4">
         <v>0</v>
@@ -4634,10 +4634,10 @@
         <v>0</v>
       </c>
       <c r="O40" s="4">
-        <v>300010</v>
-      </c>
-      <c r="P40" s="4">
-        <v>0</v>
+        <v>300008</v>
+      </c>
+      <c r="P40" s="5">
+        <v>300149</v>
       </c>
       <c r="Q40" s="4">
         <v>0</v>
@@ -4645,13 +4645,13 @@
       <c r="R40" s="4">
         <v>1</v>
       </c>
-      <c r="S40" s="20">
+      <c r="S40" s="8">
         <v>1</v>
       </c>
       <c r="T40" s="4">
-        <v>900094</v>
-      </c>
-      <c r="U40" s="18"/>
+        <v>900086</v>
+      </c>
+      <c r="U40" s="9"/>
     </row>
     <row r="41" spans="2:21">
       <c r="B41" s="3">
@@ -4672,11 +4672,11 @@
       <c r="G41" s="4">
         <v>1</v>
       </c>
-      <c r="H41" s="19">
+      <c r="H41" s="10">
         <v>264.17663999999996</v>
       </c>
       <c r="I41" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J41" s="4">
         <v>0</v>
@@ -4705,23 +4705,23 @@
       <c r="R41" s="4">
         <v>1</v>
       </c>
-      <c r="S41" s="20">
+      <c r="S41" s="11">
         <v>1</v>
       </c>
       <c r="T41" s="4">
         <v>900094</v>
       </c>
-      <c r="U41" s="18"/>
+      <c r="U41" s="9"/>
     </row>
     <row r="42" spans="2:21">
       <c r="B42" s="3">
         <v>37</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E42" s="4">
         <v>200037</v>
@@ -4732,11 +4732,11 @@
       <c r="G42" s="4">
         <v>1</v>
       </c>
-      <c r="H42" s="19">
+      <c r="H42" s="10">
         <v>317.01196799999997</v>
       </c>
       <c r="I42" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J42" s="4">
         <v>0</v>
@@ -4754,10 +4754,10 @@
         <v>0</v>
       </c>
       <c r="O42" s="4">
-        <v>300010</v>
-      </c>
-      <c r="P42" s="4">
-        <v>0</v>
+        <v>300008</v>
+      </c>
+      <c r="P42" s="5">
+        <v>300149</v>
       </c>
       <c r="Q42" s="4">
         <v>0</v>
@@ -4765,13 +4765,13 @@
       <c r="R42" s="4">
         <v>1</v>
       </c>
-      <c r="S42" s="20">
+      <c r="S42" s="8">
         <v>1</v>
       </c>
       <c r="T42" s="4">
-        <v>900094</v>
-      </c>
-      <c r="U42" s="18"/>
+        <v>900087</v>
+      </c>
+      <c r="U42" s="9"/>
     </row>
     <row r="43" spans="2:21">
       <c r="B43" s="3">
@@ -4792,7 +4792,7 @@
       <c r="G43" s="4">
         <v>1</v>
       </c>
-      <c r="H43" s="19">
+      <c r="H43" s="10">
         <v>380.41436159999995</v>
       </c>
       <c r="I43" s="4">
@@ -4825,23 +4825,23 @@
       <c r="R43" s="4">
         <v>1</v>
       </c>
-      <c r="S43" s="20">
+      <c r="S43" s="11">
         <v>1</v>
       </c>
       <c r="T43" s="4">
         <v>900094</v>
       </c>
-      <c r="U43" s="18"/>
+      <c r="U43" s="9"/>
     </row>
     <row r="44" spans="2:21">
       <c r="B44" s="3">
         <v>39</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E44" s="4">
         <v>200039</v>
@@ -4852,7 +4852,7 @@
       <c r="G44" s="4">
         <v>1</v>
       </c>
-      <c r="H44" s="19">
+      <c r="H44" s="10">
         <v>418.45579776</v>
       </c>
       <c r="I44" s="4">
@@ -4874,10 +4874,10 @@
         <v>0</v>
       </c>
       <c r="O44" s="4">
-        <v>300010</v>
-      </c>
-      <c r="P44" s="4">
-        <v>0</v>
+        <v>300008</v>
+      </c>
+      <c r="P44" s="5">
+        <v>300150</v>
       </c>
       <c r="Q44" s="4">
         <v>0</v>
@@ -4885,13 +4885,13 @@
       <c r="R44" s="4">
         <v>1</v>
       </c>
-      <c r="S44" s="20">
+      <c r="S44" s="8">
         <v>1</v>
       </c>
       <c r="T44" s="4">
-        <v>900094</v>
-      </c>
-      <c r="U44" s="18"/>
+        <v>900089</v>
+      </c>
+      <c r="U44" s="9"/>
     </row>
     <row r="45" spans="2:21">
       <c r="B45" s="3">
@@ -4912,7 +4912,7 @@
       <c r="G45" s="4">
         <v>1</v>
       </c>
-      <c r="H45" s="19">
+      <c r="H45" s="10">
         <v>460.30137753600002</v>
       </c>
       <c r="I45" s="4">
@@ -4945,23 +4945,23 @@
       <c r="R45" s="4">
         <v>1</v>
       </c>
-      <c r="S45" s="20">
+      <c r="S45" s="11">
         <v>1</v>
       </c>
       <c r="T45" s="4">
         <v>900094</v>
       </c>
-      <c r="U45" s="18"/>
+      <c r="U45" s="9"/>
     </row>
     <row r="46" spans="2:21">
       <c r="B46" s="3">
         <v>41</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E46" s="4">
         <v>200041</v>
@@ -4972,7 +4972,7 @@
       <c r="G46" s="4">
         <v>1</v>
       </c>
-      <c r="H46" s="19">
+      <c r="H46" s="10">
         <v>506.33151528960008</v>
       </c>
       <c r="I46" s="4">
@@ -4994,10 +4994,10 @@
         <v>0</v>
       </c>
       <c r="O46" s="4">
-        <v>300010</v>
-      </c>
-      <c r="P46" s="4">
-        <v>0</v>
+        <v>300008</v>
+      </c>
+      <c r="P46" s="5">
+        <v>300150</v>
       </c>
       <c r="Q46" s="4">
         <v>0</v>
@@ -5005,13 +5005,13 @@
       <c r="R46" s="4">
         <v>1</v>
       </c>
-      <c r="S46" s="20">
+      <c r="S46" s="8">
         <v>1</v>
       </c>
       <c r="T46" s="4">
-        <v>900094</v>
-      </c>
-      <c r="U46" s="18"/>
+        <v>900090</v>
+      </c>
+      <c r="U46" s="9"/>
     </row>
     <row r="47" spans="2:21">
       <c r="B47" s="3">
@@ -5032,7 +5032,7 @@
       <c r="G47" s="4">
         <v>1</v>
       </c>
-      <c r="H47" s="19">
+      <c r="H47" s="10">
         <v>556.96466681856009</v>
       </c>
       <c r="I47" s="4">
@@ -5065,23 +5065,23 @@
       <c r="R47" s="4">
         <v>1</v>
       </c>
-      <c r="S47" s="20">
+      <c r="S47" s="11">
         <v>1</v>
       </c>
       <c r="T47" s="4">
         <v>900094</v>
       </c>
-      <c r="U47" s="18"/>
+      <c r="U47" s="9"/>
     </row>
     <row r="48" spans="2:21">
       <c r="B48" s="3">
         <v>43</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E48" s="4">
         <v>200043</v>
@@ -5092,7 +5092,7 @@
       <c r="G48" s="4">
         <v>1</v>
       </c>
-      <c r="H48" s="19">
+      <c r="H48" s="10">
         <v>668.35760018227211</v>
       </c>
       <c r="I48" s="4">
@@ -5114,10 +5114,10 @@
         <v>0</v>
       </c>
       <c r="O48" s="4">
-        <v>300010</v>
-      </c>
-      <c r="P48" s="4">
-        <v>0</v>
+        <v>300008</v>
+      </c>
+      <c r="P48" s="5">
+        <v>300150</v>
       </c>
       <c r="Q48" s="4">
         <v>0</v>
@@ -5125,13 +5125,13 @@
       <c r="R48" s="4">
         <v>1</v>
       </c>
-      <c r="S48" s="20">
+      <c r="S48" s="8">
         <v>1</v>
       </c>
       <c r="T48" s="4">
-        <v>900094</v>
-      </c>
-      <c r="U48" s="18"/>
+        <v>900091</v>
+      </c>
+      <c r="U48" s="9"/>
     </row>
     <row r="49" spans="2:21">
       <c r="B49" s="3">
@@ -5152,7 +5152,7 @@
       <c r="G49" s="4">
         <v>1</v>
       </c>
-      <c r="H49" s="19">
+      <c r="H49" s="10">
         <v>802.02912021872646</v>
       </c>
       <c r="I49" s="4">
@@ -5185,23 +5185,23 @@
       <c r="R49" s="4">
         <v>1</v>
       </c>
-      <c r="S49" s="20">
+      <c r="S49" s="11">
         <v>1</v>
       </c>
       <c r="T49" s="4">
         <v>900094</v>
       </c>
-      <c r="U49" s="18"/>
+      <c r="U49" s="9"/>
     </row>
     <row r="50" spans="2:21">
       <c r="B50" s="3">
         <v>45</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E50" s="4">
         <v>200045</v>
@@ -5212,7 +5212,7 @@
       <c r="G50" s="4">
         <v>1</v>
       </c>
-      <c r="H50" s="19">
+      <c r="H50" s="10">
         <v>882.23203224059921</v>
       </c>
       <c r="I50" s="4">
@@ -5234,10 +5234,10 @@
         <v>0</v>
       </c>
       <c r="O50" s="4">
-        <v>300010</v>
-      </c>
-      <c r="P50" s="4">
-        <v>0</v>
+        <v>300008</v>
+      </c>
+      <c r="P50" s="5">
+        <v>300150</v>
       </c>
       <c r="Q50" s="4">
         <v>0</v>
@@ -5245,13 +5245,13 @@
       <c r="R50" s="4">
         <v>1</v>
       </c>
-      <c r="S50" s="20">
+      <c r="S50" s="8">
         <v>1</v>
       </c>
       <c r="T50" s="4">
-        <v>900094</v>
-      </c>
-      <c r="U50" s="18"/>
+        <v>900092</v>
+      </c>
+      <c r="U50" s="9"/>
     </row>
     <row r="51" spans="2:21">
       <c r="B51" s="3">
@@ -5272,7 +5272,7 @@
       <c r="G51" s="4">
         <v>1</v>
       </c>
-      <c r="H51" s="19">
+      <c r="H51" s="10">
         <v>970.45523546465915</v>
       </c>
       <c r="I51" s="4">
@@ -5305,23 +5305,23 @@
       <c r="R51" s="4">
         <v>1</v>
       </c>
-      <c r="S51" s="20">
+      <c r="S51" s="11">
         <v>1</v>
       </c>
       <c r="T51" s="4">
         <v>900094</v>
       </c>
-      <c r="U51" s="18"/>
+      <c r="U51" s="9"/>
     </row>
     <row r="52" spans="2:21">
       <c r="B52" s="3">
         <v>47</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E52" s="4">
         <v>200047</v>
@@ -5332,7 +5332,7 @@
       <c r="G52" s="4">
         <v>1</v>
       </c>
-      <c r="H52" s="19">
+      <c r="H52" s="10">
         <v>1067.5007590111252</v>
       </c>
       <c r="I52" s="4">
@@ -5365,13 +5365,13 @@
       <c r="R52" s="4">
         <v>1</v>
       </c>
-      <c r="S52" s="20">
+      <c r="S52" s="11">
         <v>1</v>
       </c>
       <c r="T52" s="4">
-        <v>900094</v>
-      </c>
-      <c r="U52" s="18"/>
+        <v>900095</v>
+      </c>
+      <c r="U52" s="9"/>
     </row>
     <row r="53" spans="2:21">
       <c r="B53" s="3">
@@ -5392,7 +5392,7 @@
       <c r="G53" s="4">
         <v>1</v>
       </c>
-      <c r="H53" s="19">
+      <c r="H53" s="10">
         <v>1174.2508349122379</v>
       </c>
       <c r="I53" s="4">
@@ -5425,13 +5425,13 @@
       <c r="R53" s="4">
         <v>1</v>
       </c>
-      <c r="S53" s="20">
+      <c r="S53" s="11">
         <v>1</v>
       </c>
       <c r="T53" s="4">
         <v>900094</v>
       </c>
-      <c r="U53" s="18"/>
+      <c r="U53" s="9"/>
     </row>
     <row r="54" spans="2:21">
       <c r="B54" s="3">
@@ -5452,7 +5452,7 @@
       <c r="G54" s="4">
         <v>1</v>
       </c>
-      <c r="H54" s="19">
+      <c r="H54" s="10">
         <v>1200</v>
       </c>
       <c r="I54" s="4">
@@ -5485,23 +5485,23 @@
       <c r="R54" s="4">
         <v>1</v>
       </c>
-      <c r="S54" s="20">
+      <c r="S54" s="11">
         <v>1</v>
       </c>
       <c r="T54" s="4">
         <v>900094</v>
       </c>
-      <c r="U54" s="18"/>
+      <c r="U54" s="9"/>
     </row>
     <row r="55" spans="2:21">
       <c r="B55" s="3">
         <v>50</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E55" s="4">
         <v>200050</v>
@@ -5512,7 +5512,7 @@
       <c r="G55" s="4">
         <v>1</v>
       </c>
-      <c r="H55" s="19">
+      <c r="H55" s="10">
         <v>10000</v>
       </c>
       <c r="I55" s="4">
@@ -5534,10 +5534,10 @@
         <v>0</v>
       </c>
       <c r="O55" s="4">
-        <v>300010</v>
-      </c>
-      <c r="P55" s="4">
-        <v>0</v>
+        <v>300008</v>
+      </c>
+      <c r="P55" s="5">
+        <v>300149</v>
       </c>
       <c r="Q55" s="4">
         <v>0</v>
@@ -5545,13 +5545,13 @@
       <c r="R55" s="4">
         <v>1</v>
       </c>
-      <c r="S55" s="20">
+      <c r="S55" s="8">
         <v>1</v>
       </c>
       <c r="T55" s="4">
-        <v>900094</v>
-      </c>
-      <c r="U55" s="18"/>
+        <v>900088</v>
+      </c>
+      <c r="U55" s="9"/>
     </row>
     <row r="56" spans="2:21">
       <c r="B56" s="3"/>
@@ -5562,18 +5562,18 @@
   </sheetData>
   <autoFilter ref="B5:U5" xr:uid="{13258274-53B7-4F09-920C-41EC9C872C80}"/>
   <mergeCells count="12">
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="S2:S3"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Table_List/03_Enemy_Table.xlsx
+++ b/Documents/Table_List/03_Enemy_Table.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Documents\GitHub\DefensiveDungeon\Documents\Table_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\Def\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2687FF-3E82-42C5-A73C-B817B6B62A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FD97BF-79E4-43B0-B16A-DC5E4E88628D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A37F908-261C-4BE0-9C6B-B14E11827940}"/>
+    <workbookView minimized="1" xWindow="14295" yWindow="3390" windowWidth="14400" windowHeight="12210" xr2:uid="{5A37F908-261C-4BE0-9C6B-B14E11827940}"/>
   </bookViews>
   <sheets>
     <sheet name="Enemy_Table" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Enemy_Table!$B$5:$U$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Enemy_Table!$A$1:$U$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Enemy_Table!$B$5:$W$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Enemy_Table!$A$1:$W$63</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1083,7 +1083,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="1" shapeId="0" xr:uid="{0DB37BA1-9AB7-4E8F-92B9-4650EAEF3681}">
+    <comment ref="V2" authorId="1" shapeId="0" xr:uid="{0DB37BA1-9AB7-4E8F-92B9-4650EAEF3681}">
       <text>
         <r>
           <rPr>
@@ -1102,7 +1102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="97">
   <si>
     <t>번호</t>
   </si>
@@ -1686,6 +1686,88 @@
       <t>기사</t>
     </r>
   </si>
+  <si>
+    <t>AtkSound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공격</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>음향</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사망</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>음향</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeathSound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1697,7 +1779,7 @@
     <numFmt numFmtId="178" formatCode="0_ "/>
     <numFmt numFmtId="179" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1792,6 +1874,22 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1819,7 +1917,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1935,13 +2033,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1978,10 +2116,13 @@
     <xf numFmtId="179" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1990,20 +2131,29 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2319,13 +2469,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13258274-53B7-4F09-920C-41EC9C872C80}">
-  <dimension ref="B2:U57"/>
+  <dimension ref="B2:W57"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="U53" sqref="U53"/>
+      <selection pane="bottomRight" activeCell="S6" sqref="S6:T55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2336,61 +2486,67 @@
     <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
     <col min="12" max="14" width="0" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="0" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="38.25" customWidth="1"/>
+    <col min="23" max="23" width="38.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21">
-      <c r="B2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="14" t="s">
+    <row r="2" spans="2:23">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="12" t="s">
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="12" t="s">
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="14" t="s">
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="S2" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="T2" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="U2" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="V2" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="W2" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="2:21">
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="13"/>
+    <row r="3" spans="2:23">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="18"/>
       <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2424,12 +2580,14 @@
       <c r="Q3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="15"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="15"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="16"/>
     </row>
-    <row r="4" spans="2:21">
+    <row r="4" spans="2:23">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -2482,16 +2640,22 @@
         <v>31</v>
       </c>
       <c r="S4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="U4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="V4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="W4" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="2:21">
+    <row r="5" spans="2:23">
       <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
@@ -2544,16 +2708,22 @@
         <v>15</v>
       </c>
       <c r="S5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="U5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="T5" s="7" t="s">
+      <c r="V5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="U5" s="7" t="s">
+      <c r="W5" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:21">
+    <row r="6" spans="2:23">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -2605,15 +2775,21 @@
       <c r="R6" s="4">
         <v>1</v>
       </c>
-      <c r="S6" s="8">
-        <v>1</v>
+      <c r="S6" s="4">
+        <v>0</v>
       </c>
       <c r="T6" s="4">
+        <v>0</v>
+      </c>
+      <c r="U6" s="8">
+        <v>1</v>
+      </c>
+      <c r="V6" s="4">
         <v>900085</v>
       </c>
-      <c r="U6" s="4"/>
+      <c r="W6" s="4"/>
     </row>
-    <row r="7" spans="2:21">
+    <row r="7" spans="2:23">
       <c r="B7" s="3">
         <v>2</v>
       </c>
@@ -2665,15 +2841,21 @@
       <c r="R7" s="4">
         <v>1</v>
       </c>
-      <c r="S7" s="8">
-        <v>1</v>
+      <c r="S7" s="4">
+        <v>0</v>
       </c>
       <c r="T7" s="4">
+        <v>0</v>
+      </c>
+      <c r="U7" s="8">
+        <v>1</v>
+      </c>
+      <c r="V7" s="4">
         <v>900086</v>
       </c>
-      <c r="U7" s="4"/>
+      <c r="W7" s="4"/>
     </row>
-    <row r="8" spans="2:21">
+    <row r="8" spans="2:23">
       <c r="B8" s="3">
         <v>3</v>
       </c>
@@ -2725,15 +2907,21 @@
       <c r="R8" s="4">
         <v>1</v>
       </c>
-      <c r="S8" s="8">
-        <v>1</v>
+      <c r="S8" s="4">
+        <v>0</v>
       </c>
       <c r="T8" s="4">
+        <v>0</v>
+      </c>
+      <c r="U8" s="8">
+        <v>1</v>
+      </c>
+      <c r="V8" s="4">
         <v>900087</v>
       </c>
-      <c r="U8" s="4"/>
+      <c r="W8" s="4"/>
     </row>
-    <row r="9" spans="2:21">
+    <row r="9" spans="2:23">
       <c r="B9" s="3">
         <v>4</v>
       </c>
@@ -2785,15 +2973,21 @@
       <c r="R9" s="4">
         <v>1</v>
       </c>
-      <c r="S9" s="8">
-        <v>1</v>
+      <c r="S9" s="4">
+        <v>0</v>
       </c>
       <c r="T9" s="4">
+        <v>0</v>
+      </c>
+      <c r="U9" s="8">
+        <v>1</v>
+      </c>
+      <c r="V9" s="4">
         <v>900088</v>
       </c>
-      <c r="U9" s="4"/>
+      <c r="W9" s="4"/>
     </row>
-    <row r="10" spans="2:21">
+    <row r="10" spans="2:23">
       <c r="B10" s="3">
         <v>5</v>
       </c>
@@ -2845,15 +3039,21 @@
       <c r="R10" s="4">
         <v>1</v>
       </c>
-      <c r="S10" s="8">
-        <v>1</v>
+      <c r="S10" s="4">
+        <v>0</v>
       </c>
       <c r="T10" s="4">
+        <v>0</v>
+      </c>
+      <c r="U10" s="8">
+        <v>1</v>
+      </c>
+      <c r="V10" s="4">
         <v>900089</v>
       </c>
-      <c r="U10" s="4"/>
+      <c r="W10" s="4"/>
     </row>
-    <row r="11" spans="2:21">
+    <row r="11" spans="2:23">
       <c r="B11" s="3">
         <v>6</v>
       </c>
@@ -2905,15 +3105,21 @@
       <c r="R11" s="4">
         <v>1</v>
       </c>
-      <c r="S11" s="8">
-        <v>1</v>
+      <c r="S11" s="4">
+        <v>0</v>
       </c>
       <c r="T11" s="4">
+        <v>0</v>
+      </c>
+      <c r="U11" s="8">
+        <v>1</v>
+      </c>
+      <c r="V11" s="4">
         <v>900090</v>
       </c>
-      <c r="U11" s="4"/>
+      <c r="W11" s="4"/>
     </row>
-    <row r="12" spans="2:21">
+    <row r="12" spans="2:23">
       <c r="B12" s="3">
         <v>7</v>
       </c>
@@ -2965,15 +3171,21 @@
       <c r="R12" s="4">
         <v>1</v>
       </c>
-      <c r="S12" s="8">
-        <v>1</v>
+      <c r="S12" s="4">
+        <v>0</v>
       </c>
       <c r="T12" s="4">
+        <v>0</v>
+      </c>
+      <c r="U12" s="8">
+        <v>1</v>
+      </c>
+      <c r="V12" s="4">
         <v>900091</v>
       </c>
-      <c r="U12" s="4"/>
+      <c r="W12" s="4"/>
     </row>
-    <row r="13" spans="2:21">
+    <row r="13" spans="2:23">
       <c r="B13" s="3">
         <v>8</v>
       </c>
@@ -3025,15 +3237,21 @@
       <c r="R13" s="4">
         <v>1</v>
       </c>
-      <c r="S13" s="8">
-        <v>1</v>
+      <c r="S13" s="4">
+        <v>0</v>
       </c>
       <c r="T13" s="4">
+        <v>0</v>
+      </c>
+      <c r="U13" s="8">
+        <v>1</v>
+      </c>
+      <c r="V13" s="4">
         <v>900092</v>
       </c>
-      <c r="U13" s="4"/>
+      <c r="W13" s="4"/>
     </row>
-    <row r="14" spans="2:21">
+    <row r="14" spans="2:23">
       <c r="B14" s="3">
         <v>9</v>
       </c>
@@ -3085,15 +3303,21 @@
       <c r="R14" s="4">
         <v>1</v>
       </c>
-      <c r="S14" s="8">
-        <v>1</v>
+      <c r="S14" s="4">
+        <v>0</v>
       </c>
       <c r="T14" s="4">
+        <v>0</v>
+      </c>
+      <c r="U14" s="8">
+        <v>1</v>
+      </c>
+      <c r="V14" s="4">
         <v>900093</v>
       </c>
-      <c r="U14" s="4"/>
+      <c r="W14" s="4"/>
     </row>
-    <row r="15" spans="2:21">
+    <row r="15" spans="2:23">
       <c r="B15" s="3">
         <v>10</v>
       </c>
@@ -3145,15 +3369,21 @@
       <c r="R15" s="4">
         <v>0.5</v>
       </c>
-      <c r="S15" s="8">
-        <v>1</v>
+      <c r="S15" s="4">
+        <v>0</v>
       </c>
       <c r="T15" s="4">
+        <v>0</v>
+      </c>
+      <c r="U15" s="8">
+        <v>1</v>
+      </c>
+      <c r="V15" s="4">
         <v>900093</v>
       </c>
-      <c r="U15" s="4"/>
+      <c r="W15" s="4"/>
     </row>
-    <row r="16" spans="2:21">
+    <row r="16" spans="2:23">
       <c r="B16" s="3">
         <v>11</v>
       </c>
@@ -3205,15 +3435,21 @@
       <c r="R16" s="4">
         <v>1</v>
       </c>
-      <c r="S16" s="8">
-        <v>1</v>
+      <c r="S16" s="4">
+        <v>0</v>
       </c>
       <c r="T16" s="4">
+        <v>0</v>
+      </c>
+      <c r="U16" s="8">
+        <v>1</v>
+      </c>
+      <c r="V16" s="4">
         <v>900094</v>
       </c>
-      <c r="U16" s="4"/>
+      <c r="W16" s="4"/>
     </row>
-    <row r="17" spans="2:21">
+    <row r="17" spans="2:23">
       <c r="B17" s="3">
         <v>12</v>
       </c>
@@ -3265,15 +3501,21 @@
       <c r="R17" s="4">
         <v>1</v>
       </c>
-      <c r="S17" s="8">
-        <v>1</v>
+      <c r="S17" s="4">
+        <v>0</v>
       </c>
       <c r="T17" s="4">
+        <v>0</v>
+      </c>
+      <c r="U17" s="8">
+        <v>1</v>
+      </c>
+      <c r="V17" s="4">
         <v>900095</v>
       </c>
-      <c r="U17" s="4"/>
+      <c r="W17" s="4"/>
     </row>
-    <row r="18" spans="2:21">
+    <row r="18" spans="2:23">
       <c r="B18" s="3">
         <v>13</v>
       </c>
@@ -3325,15 +3567,21 @@
       <c r="R18" s="4">
         <v>1</v>
       </c>
-      <c r="S18" s="8">
-        <v>1</v>
+      <c r="S18" s="4">
+        <v>0</v>
       </c>
       <c r="T18" s="4">
+        <v>0</v>
+      </c>
+      <c r="U18" s="8">
+        <v>1</v>
+      </c>
+      <c r="V18" s="4">
         <v>900096</v>
       </c>
-      <c r="U18" s="4"/>
+      <c r="W18" s="4"/>
     </row>
-    <row r="19" spans="2:21">
+    <row r="19" spans="2:23">
       <c r="B19" s="3">
         <v>14</v>
       </c>
@@ -3385,15 +3633,21 @@
       <c r="R19" s="4">
         <v>1</v>
       </c>
-      <c r="S19" s="8">
-        <v>1</v>
+      <c r="S19" s="4">
+        <v>0</v>
       </c>
       <c r="T19" s="4">
+        <v>0</v>
+      </c>
+      <c r="U19" s="8">
+        <v>1</v>
+      </c>
+      <c r="V19" s="4">
         <v>900097</v>
       </c>
-      <c r="U19" s="4"/>
+      <c r="W19" s="4"/>
     </row>
-    <row r="20" spans="2:21">
+    <row r="20" spans="2:23">
       <c r="B20" s="3">
         <v>15</v>
       </c>
@@ -3445,15 +3699,21 @@
       <c r="R20" s="4">
         <v>1</v>
       </c>
-      <c r="S20" s="8">
-        <v>1</v>
+      <c r="S20" s="4">
+        <v>0</v>
       </c>
       <c r="T20" s="4">
+        <v>0</v>
+      </c>
+      <c r="U20" s="8">
+        <v>1</v>
+      </c>
+      <c r="V20" s="4">
         <v>900098</v>
       </c>
-      <c r="U20" s="4"/>
+      <c r="W20" s="4"/>
     </row>
-    <row r="21" spans="2:21">
+    <row r="21" spans="2:23">
       <c r="B21" s="3">
         <v>16</v>
       </c>
@@ -3505,15 +3765,21 @@
       <c r="R21" s="4">
         <v>1</v>
       </c>
-      <c r="S21" s="8">
-        <v>1</v>
+      <c r="S21" s="4">
+        <v>0</v>
       </c>
       <c r="T21" s="4">
+        <v>0</v>
+      </c>
+      <c r="U21" s="8">
+        <v>1</v>
+      </c>
+      <c r="V21" s="4">
         <v>900099</v>
       </c>
-      <c r="U21" s="4"/>
+      <c r="W21" s="4"/>
     </row>
-    <row r="22" spans="2:21">
+    <row r="22" spans="2:23">
       <c r="B22" s="3">
         <v>17</v>
       </c>
@@ -3565,15 +3831,21 @@
       <c r="R22" s="4">
         <v>1</v>
       </c>
-      <c r="S22" s="8">
-        <v>1</v>
+      <c r="S22" s="4">
+        <v>0</v>
       </c>
       <c r="T22" s="4">
+        <v>0</v>
+      </c>
+      <c r="U22" s="8">
+        <v>1</v>
+      </c>
+      <c r="V22" s="4">
         <v>900094</v>
       </c>
-      <c r="U22" s="4"/>
+      <c r="W22" s="4"/>
     </row>
-    <row r="23" spans="2:21">
+    <row r="23" spans="2:23">
       <c r="B23" s="3">
         <v>18</v>
       </c>
@@ -3625,15 +3897,21 @@
       <c r="R23" s="4">
         <v>1</v>
       </c>
-      <c r="S23" s="8">
-        <v>1</v>
+      <c r="S23" s="4">
+        <v>0</v>
       </c>
       <c r="T23" s="4">
+        <v>0</v>
+      </c>
+      <c r="U23" s="8">
+        <v>1</v>
+      </c>
+      <c r="V23" s="4">
         <v>900095</v>
       </c>
-      <c r="U23" s="4"/>
+      <c r="W23" s="4"/>
     </row>
-    <row r="24" spans="2:21">
+    <row r="24" spans="2:23">
       <c r="B24" s="3">
         <v>19</v>
       </c>
@@ -3685,15 +3963,21 @@
       <c r="R24" s="4">
         <v>1</v>
       </c>
-      <c r="S24" s="8">
-        <v>1</v>
+      <c r="S24" s="4">
+        <v>0</v>
       </c>
       <c r="T24" s="4">
+        <v>0</v>
+      </c>
+      <c r="U24" s="8">
+        <v>1</v>
+      </c>
+      <c r="V24" s="4">
         <v>900096</v>
       </c>
-      <c r="U24" s="4"/>
+      <c r="W24" s="4"/>
     </row>
-    <row r="25" spans="2:21">
+    <row r="25" spans="2:23">
       <c r="B25" s="3">
         <v>20</v>
       </c>
@@ -3745,15 +4029,21 @@
       <c r="R25" s="4">
         <v>1</v>
       </c>
-      <c r="S25" s="8">
-        <v>1</v>
+      <c r="S25" s="4">
+        <v>0</v>
       </c>
       <c r="T25" s="4">
+        <v>0</v>
+      </c>
+      <c r="U25" s="8">
+        <v>1</v>
+      </c>
+      <c r="V25" s="4">
         <v>900097</v>
       </c>
-      <c r="U25" s="4"/>
+      <c r="W25" s="4"/>
     </row>
-    <row r="26" spans="2:21">
+    <row r="26" spans="2:23">
       <c r="B26" s="3">
         <v>21</v>
       </c>
@@ -3805,15 +4095,21 @@
       <c r="R26" s="4">
         <v>1</v>
       </c>
-      <c r="S26" s="8">
-        <v>1</v>
+      <c r="S26" s="4">
+        <v>0</v>
       </c>
       <c r="T26" s="4">
+        <v>0</v>
+      </c>
+      <c r="U26" s="8">
+        <v>1</v>
+      </c>
+      <c r="V26" s="4">
         <v>900098</v>
       </c>
-      <c r="U26" s="4"/>
+      <c r="W26" s="4"/>
     </row>
-    <row r="27" spans="2:21">
+    <row r="27" spans="2:23">
       <c r="B27" s="3">
         <v>22</v>
       </c>
@@ -3865,15 +4161,21 @@
       <c r="R27" s="4">
         <v>1</v>
       </c>
-      <c r="S27" s="8">
-        <v>1</v>
+      <c r="S27" s="4">
+        <v>0</v>
       </c>
       <c r="T27" s="4">
+        <v>0</v>
+      </c>
+      <c r="U27" s="8">
+        <v>1</v>
+      </c>
+      <c r="V27" s="4">
         <v>900099</v>
       </c>
-      <c r="U27" s="4"/>
+      <c r="W27" s="4"/>
     </row>
-    <row r="28" spans="2:21">
+    <row r="28" spans="2:23">
       <c r="B28" s="3">
         <v>23</v>
       </c>
@@ -3925,15 +4227,21 @@
       <c r="R28" s="4">
         <v>1</v>
       </c>
-      <c r="S28" s="8">
-        <v>1</v>
+      <c r="S28" s="4">
+        <v>0</v>
       </c>
       <c r="T28" s="4">
+        <v>0</v>
+      </c>
+      <c r="U28" s="8">
+        <v>1</v>
+      </c>
+      <c r="V28" s="4">
         <v>900094</v>
       </c>
-      <c r="U28" s="4"/>
+      <c r="W28" s="4"/>
     </row>
-    <row r="29" spans="2:21">
+    <row r="29" spans="2:23">
       <c r="B29" s="3">
         <v>24</v>
       </c>
@@ -3985,15 +4293,21 @@
       <c r="R29" s="4">
         <v>1</v>
       </c>
-      <c r="S29" s="8">
-        <v>1</v>
+      <c r="S29" s="4">
+        <v>0</v>
       </c>
       <c r="T29" s="4">
+        <v>0</v>
+      </c>
+      <c r="U29" s="8">
+        <v>1</v>
+      </c>
+      <c r="V29" s="4">
         <v>900095</v>
       </c>
-      <c r="U29" s="4"/>
+      <c r="W29" s="4"/>
     </row>
-    <row r="30" spans="2:21">
+    <row r="30" spans="2:23">
       <c r="B30" s="3">
         <v>25</v>
       </c>
@@ -4045,15 +4359,21 @@
       <c r="R30" s="4">
         <v>1</v>
       </c>
-      <c r="S30" s="8">
-        <v>1</v>
+      <c r="S30" s="4">
+        <v>0</v>
       </c>
       <c r="T30" s="4">
+        <v>0</v>
+      </c>
+      <c r="U30" s="8">
+        <v>1</v>
+      </c>
+      <c r="V30" s="4">
         <v>900096</v>
       </c>
-      <c r="U30" s="4"/>
+      <c r="W30" s="4"/>
     </row>
-    <row r="31" spans="2:21">
+    <row r="31" spans="2:23">
       <c r="B31" s="3">
         <v>26</v>
       </c>
@@ -4105,15 +4425,21 @@
       <c r="R31" s="4">
         <v>1</v>
       </c>
-      <c r="S31" s="8">
-        <v>1</v>
+      <c r="S31" s="4">
+        <v>0</v>
       </c>
       <c r="T31" s="4">
+        <v>0</v>
+      </c>
+      <c r="U31" s="8">
+        <v>1</v>
+      </c>
+      <c r="V31" s="4">
         <v>900097</v>
       </c>
-      <c r="U31" s="4"/>
+      <c r="W31" s="4"/>
     </row>
-    <row r="32" spans="2:21">
+    <row r="32" spans="2:23">
       <c r="B32" s="3">
         <v>27</v>
       </c>
@@ -4165,15 +4491,21 @@
       <c r="R32" s="4">
         <v>1</v>
       </c>
-      <c r="S32" s="8">
-        <v>1</v>
+      <c r="S32" s="4">
+        <v>0</v>
       </c>
       <c r="T32" s="4">
+        <v>0</v>
+      </c>
+      <c r="U32" s="8">
+        <v>1</v>
+      </c>
+      <c r="V32" s="4">
         <v>900098</v>
       </c>
-      <c r="U32" s="4"/>
+      <c r="W32" s="4"/>
     </row>
-    <row r="33" spans="2:21">
+    <row r="33" spans="2:23">
       <c r="B33" s="3">
         <v>28</v>
       </c>
@@ -4225,15 +4557,21 @@
       <c r="R33" s="4">
         <v>1</v>
       </c>
-      <c r="S33" s="8">
-        <v>1</v>
+      <c r="S33" s="4">
+        <v>0</v>
       </c>
       <c r="T33" s="4">
+        <v>0</v>
+      </c>
+      <c r="U33" s="8">
+        <v>1</v>
+      </c>
+      <c r="V33" s="4">
         <v>900099</v>
       </c>
-      <c r="U33" s="4"/>
+      <c r="W33" s="4"/>
     </row>
-    <row r="34" spans="2:21">
+    <row r="34" spans="2:23">
       <c r="B34" s="3">
         <v>29</v>
       </c>
@@ -4285,15 +4623,21 @@
       <c r="R34" s="4">
         <v>1</v>
       </c>
-      <c r="S34" s="11">
-        <v>1</v>
+      <c r="S34" s="4">
+        <v>0</v>
       </c>
       <c r="T34" s="4">
+        <v>0</v>
+      </c>
+      <c r="U34" s="11">
+        <v>1</v>
+      </c>
+      <c r="V34" s="4">
         <v>900094</v>
       </c>
-      <c r="U34" s="9"/>
+      <c r="W34" s="9"/>
     </row>
-    <row r="35" spans="2:21">
+    <row r="35" spans="2:23">
       <c r="B35" s="3">
         <v>30</v>
       </c>
@@ -4345,15 +4689,21 @@
       <c r="R35" s="4">
         <v>1</v>
       </c>
-      <c r="S35" s="11">
-        <v>1</v>
+      <c r="S35" s="4">
+        <v>0</v>
       </c>
       <c r="T35" s="4">
+        <v>0</v>
+      </c>
+      <c r="U35" s="11">
+        <v>1</v>
+      </c>
+      <c r="V35" s="4">
         <v>900094</v>
       </c>
-      <c r="U35" s="9"/>
+      <c r="W35" s="9"/>
     </row>
-    <row r="36" spans="2:21">
+    <row r="36" spans="2:23">
       <c r="B36" s="3">
         <v>31</v>
       </c>
@@ -4405,15 +4755,21 @@
       <c r="R36" s="4">
         <v>1</v>
       </c>
-      <c r="S36" s="11">
-        <v>1</v>
+      <c r="S36" s="4">
+        <v>0</v>
       </c>
       <c r="T36" s="4">
+        <v>0</v>
+      </c>
+      <c r="U36" s="11">
+        <v>1</v>
+      </c>
+      <c r="V36" s="4">
         <v>900095</v>
       </c>
-      <c r="U36" s="9"/>
+      <c r="W36" s="9"/>
     </row>
-    <row r="37" spans="2:21">
+    <row r="37" spans="2:23">
       <c r="B37" s="3">
         <v>32</v>
       </c>
@@ -4465,15 +4821,21 @@
       <c r="R37" s="4">
         <v>1</v>
       </c>
-      <c r="S37" s="11">
-        <v>1</v>
+      <c r="S37" s="4">
+        <v>0</v>
       </c>
       <c r="T37" s="4">
+        <v>0</v>
+      </c>
+      <c r="U37" s="11">
+        <v>1</v>
+      </c>
+      <c r="V37" s="4">
         <v>900094</v>
       </c>
-      <c r="U37" s="9"/>
+      <c r="W37" s="9"/>
     </row>
-    <row r="38" spans="2:21">
+    <row r="38" spans="2:23">
       <c r="B38" s="3">
         <v>33</v>
       </c>
@@ -4525,15 +4887,21 @@
       <c r="R38" s="4">
         <v>1</v>
       </c>
-      <c r="S38" s="8">
-        <v>1</v>
+      <c r="S38" s="4">
+        <v>0</v>
       </c>
       <c r="T38" s="4">
+        <v>0</v>
+      </c>
+      <c r="U38" s="8">
+        <v>1</v>
+      </c>
+      <c r="V38" s="4">
         <v>900085</v>
       </c>
-      <c r="U38" s="9"/>
+      <c r="W38" s="9"/>
     </row>
-    <row r="39" spans="2:21">
+    <row r="39" spans="2:23">
       <c r="B39" s="3">
         <v>34</v>
       </c>
@@ -4585,15 +4953,21 @@
       <c r="R39" s="4">
         <v>1</v>
       </c>
-      <c r="S39" s="11">
-        <v>1</v>
+      <c r="S39" s="4">
+        <v>0</v>
       </c>
       <c r="T39" s="4">
+        <v>0</v>
+      </c>
+      <c r="U39" s="11">
+        <v>1</v>
+      </c>
+      <c r="V39" s="4">
         <v>900094</v>
       </c>
-      <c r="U39" s="9"/>
+      <c r="W39" s="9"/>
     </row>
-    <row r="40" spans="2:21">
+    <row r="40" spans="2:23">
       <c r="B40" s="3">
         <v>35</v>
       </c>
@@ -4645,15 +5019,21 @@
       <c r="R40" s="4">
         <v>1</v>
       </c>
-      <c r="S40" s="8">
-        <v>1</v>
+      <c r="S40" s="4">
+        <v>0</v>
       </c>
       <c r="T40" s="4">
+        <v>0</v>
+      </c>
+      <c r="U40" s="8">
+        <v>1</v>
+      </c>
+      <c r="V40" s="4">
         <v>900086</v>
       </c>
-      <c r="U40" s="9"/>
+      <c r="W40" s="9"/>
     </row>
-    <row r="41" spans="2:21">
+    <row r="41" spans="2:23">
       <c r="B41" s="3">
         <v>36</v>
       </c>
@@ -4705,15 +5085,21 @@
       <c r="R41" s="4">
         <v>1</v>
       </c>
-      <c r="S41" s="11">
-        <v>1</v>
+      <c r="S41" s="4">
+        <v>0</v>
       </c>
       <c r="T41" s="4">
+        <v>0</v>
+      </c>
+      <c r="U41" s="11">
+        <v>1</v>
+      </c>
+      <c r="V41" s="4">
         <v>900094</v>
       </c>
-      <c r="U41" s="9"/>
+      <c r="W41" s="9"/>
     </row>
-    <row r="42" spans="2:21">
+    <row r="42" spans="2:23">
       <c r="B42" s="3">
         <v>37</v>
       </c>
@@ -4765,15 +5151,21 @@
       <c r="R42" s="4">
         <v>1</v>
       </c>
-      <c r="S42" s="8">
-        <v>1</v>
+      <c r="S42" s="4">
+        <v>0</v>
       </c>
       <c r="T42" s="4">
+        <v>0</v>
+      </c>
+      <c r="U42" s="8">
+        <v>1</v>
+      </c>
+      <c r="V42" s="4">
         <v>900087</v>
       </c>
-      <c r="U42" s="9"/>
+      <c r="W42" s="9"/>
     </row>
-    <row r="43" spans="2:21">
+    <row r="43" spans="2:23">
       <c r="B43" s="3">
         <v>38</v>
       </c>
@@ -4825,15 +5217,21 @@
       <c r="R43" s="4">
         <v>1</v>
       </c>
-      <c r="S43" s="11">
-        <v>1</v>
+      <c r="S43" s="4">
+        <v>0</v>
       </c>
       <c r="T43" s="4">
+        <v>0</v>
+      </c>
+      <c r="U43" s="11">
+        <v>1</v>
+      </c>
+      <c r="V43" s="4">
         <v>900094</v>
       </c>
-      <c r="U43" s="9"/>
+      <c r="W43" s="9"/>
     </row>
-    <row r="44" spans="2:21">
+    <row r="44" spans="2:23">
       <c r="B44" s="3">
         <v>39</v>
       </c>
@@ -4885,15 +5283,21 @@
       <c r="R44" s="4">
         <v>1</v>
       </c>
-      <c r="S44" s="8">
-        <v>1</v>
+      <c r="S44" s="4">
+        <v>0</v>
       </c>
       <c r="T44" s="4">
+        <v>0</v>
+      </c>
+      <c r="U44" s="8">
+        <v>1</v>
+      </c>
+      <c r="V44" s="4">
         <v>900089</v>
       </c>
-      <c r="U44" s="9"/>
+      <c r="W44" s="9"/>
     </row>
-    <row r="45" spans="2:21">
+    <row r="45" spans="2:23">
       <c r="B45" s="3">
         <v>40</v>
       </c>
@@ -4945,15 +5349,21 @@
       <c r="R45" s="4">
         <v>1</v>
       </c>
-      <c r="S45" s="11">
-        <v>1</v>
+      <c r="S45" s="4">
+        <v>0</v>
       </c>
       <c r="T45" s="4">
+        <v>0</v>
+      </c>
+      <c r="U45" s="11">
+        <v>1</v>
+      </c>
+      <c r="V45" s="4">
         <v>900094</v>
       </c>
-      <c r="U45" s="9"/>
+      <c r="W45" s="9"/>
     </row>
-    <row r="46" spans="2:21">
+    <row r="46" spans="2:23">
       <c r="B46" s="3">
         <v>41</v>
       </c>
@@ -5005,15 +5415,21 @@
       <c r="R46" s="4">
         <v>1</v>
       </c>
-      <c r="S46" s="8">
-        <v>1</v>
+      <c r="S46" s="4">
+        <v>0</v>
       </c>
       <c r="T46" s="4">
+        <v>0</v>
+      </c>
+      <c r="U46" s="8">
+        <v>1</v>
+      </c>
+      <c r="V46" s="4">
         <v>900090</v>
       </c>
-      <c r="U46" s="9"/>
+      <c r="W46" s="9"/>
     </row>
-    <row r="47" spans="2:21">
+    <row r="47" spans="2:23">
       <c r="B47" s="3">
         <v>42</v>
       </c>
@@ -5065,15 +5481,21 @@
       <c r="R47" s="4">
         <v>1</v>
       </c>
-      <c r="S47" s="11">
-        <v>1</v>
+      <c r="S47" s="4">
+        <v>0</v>
       </c>
       <c r="T47" s="4">
+        <v>0</v>
+      </c>
+      <c r="U47" s="11">
+        <v>1</v>
+      </c>
+      <c r="V47" s="4">
         <v>900094</v>
       </c>
-      <c r="U47" s="9"/>
+      <c r="W47" s="9"/>
     </row>
-    <row r="48" spans="2:21">
+    <row r="48" spans="2:23">
       <c r="B48" s="3">
         <v>43</v>
       </c>
@@ -5125,15 +5547,21 @@
       <c r="R48" s="4">
         <v>1</v>
       </c>
-      <c r="S48" s="8">
-        <v>1</v>
+      <c r="S48" s="4">
+        <v>0</v>
       </c>
       <c r="T48" s="4">
+        <v>0</v>
+      </c>
+      <c r="U48" s="8">
+        <v>1</v>
+      </c>
+      <c r="V48" s="4">
         <v>900091</v>
       </c>
-      <c r="U48" s="9"/>
+      <c r="W48" s="9"/>
     </row>
-    <row r="49" spans="2:21">
+    <row r="49" spans="2:23">
       <c r="B49" s="3">
         <v>44</v>
       </c>
@@ -5185,15 +5613,21 @@
       <c r="R49" s="4">
         <v>1</v>
       </c>
-      <c r="S49" s="11">
-        <v>1</v>
+      <c r="S49" s="4">
+        <v>0</v>
       </c>
       <c r="T49" s="4">
+        <v>0</v>
+      </c>
+      <c r="U49" s="11">
+        <v>1</v>
+      </c>
+      <c r="V49" s="4">
         <v>900094</v>
       </c>
-      <c r="U49" s="9"/>
+      <c r="W49" s="9"/>
     </row>
-    <row r="50" spans="2:21">
+    <row r="50" spans="2:23">
       <c r="B50" s="3">
         <v>45</v>
       </c>
@@ -5245,15 +5679,21 @@
       <c r="R50" s="4">
         <v>1</v>
       </c>
-      <c r="S50" s="8">
-        <v>1</v>
+      <c r="S50" s="4">
+        <v>0</v>
       </c>
       <c r="T50" s="4">
+        <v>0</v>
+      </c>
+      <c r="U50" s="8">
+        <v>1</v>
+      </c>
+      <c r="V50" s="4">
         <v>900092</v>
       </c>
-      <c r="U50" s="9"/>
+      <c r="W50" s="9"/>
     </row>
-    <row r="51" spans="2:21">
+    <row r="51" spans="2:23">
       <c r="B51" s="3">
         <v>46</v>
       </c>
@@ -5305,15 +5745,21 @@
       <c r="R51" s="4">
         <v>1</v>
       </c>
-      <c r="S51" s="11">
-        <v>1</v>
+      <c r="S51" s="4">
+        <v>0</v>
       </c>
       <c r="T51" s="4">
+        <v>0</v>
+      </c>
+      <c r="U51" s="11">
+        <v>1</v>
+      </c>
+      <c r="V51" s="4">
         <v>900094</v>
       </c>
-      <c r="U51" s="9"/>
+      <c r="W51" s="9"/>
     </row>
-    <row r="52" spans="2:21">
+    <row r="52" spans="2:23">
       <c r="B52" s="3">
         <v>47</v>
       </c>
@@ -5365,15 +5811,21 @@
       <c r="R52" s="4">
         <v>1</v>
       </c>
-      <c r="S52" s="11">
-        <v>1</v>
+      <c r="S52" s="4">
+        <v>0</v>
       </c>
       <c r="T52" s="4">
+        <v>0</v>
+      </c>
+      <c r="U52" s="11">
+        <v>1</v>
+      </c>
+      <c r="V52" s="4">
         <v>900095</v>
       </c>
-      <c r="U52" s="9"/>
+      <c r="W52" s="9"/>
     </row>
-    <row r="53" spans="2:21">
+    <row r="53" spans="2:23">
       <c r="B53" s="3">
         <v>48</v>
       </c>
@@ -5425,15 +5877,21 @@
       <c r="R53" s="4">
         <v>1</v>
       </c>
-      <c r="S53" s="11">
-        <v>1</v>
+      <c r="S53" s="4">
+        <v>0</v>
       </c>
       <c r="T53" s="4">
+        <v>0</v>
+      </c>
+      <c r="U53" s="11">
+        <v>1</v>
+      </c>
+      <c r="V53" s="4">
         <v>900094</v>
       </c>
-      <c r="U53" s="9"/>
+      <c r="W53" s="9"/>
     </row>
-    <row r="54" spans="2:21">
+    <row r="54" spans="2:23">
       <c r="B54" s="3">
         <v>49</v>
       </c>
@@ -5485,15 +5943,21 @@
       <c r="R54" s="4">
         <v>1</v>
       </c>
-      <c r="S54" s="11">
-        <v>1</v>
+      <c r="S54" s="4">
+        <v>0</v>
       </c>
       <c r="T54" s="4">
+        <v>0</v>
+      </c>
+      <c r="U54" s="11">
+        <v>1</v>
+      </c>
+      <c r="V54" s="4">
         <v>900094</v>
       </c>
-      <c r="U54" s="9"/>
+      <c r="W54" s="9"/>
     </row>
-    <row r="55" spans="2:21">
+    <row r="55" spans="2:23">
       <c r="B55" s="3">
         <v>50</v>
       </c>
@@ -5545,35 +6009,43 @@
       <c r="R55" s="4">
         <v>1</v>
       </c>
-      <c r="S55" s="8">
-        <v>1</v>
+      <c r="S55" s="4">
+        <v>0</v>
       </c>
       <c r="T55" s="4">
+        <v>0</v>
+      </c>
+      <c r="U55" s="8">
+        <v>1</v>
+      </c>
+      <c r="V55" s="4">
         <v>900088</v>
       </c>
-      <c r="U55" s="9"/>
+      <c r="W55" s="9"/>
     </row>
-    <row r="56" spans="2:21">
+    <row r="56" spans="2:23">
       <c r="B56" s="3"/>
     </row>
-    <row r="57" spans="2:21">
+    <row r="57" spans="2:23">
       <c r="B57" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="B5:U5" xr:uid="{13258274-53B7-4F09-920C-41EC9C872C80}"/>
-  <mergeCells count="12">
+  <autoFilter ref="B5:W5" xr:uid="{13258274-53B7-4F09-920C-41EC9C872C80}"/>
+  <mergeCells count="14">
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="S2:S3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5584,7 +6056,7 @@
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="2" max="62" man="1"/>
-    <brk id="20" max="62" man="1"/>
+    <brk id="22" max="62" man="1"/>
   </colBreaks>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/Documents/Table_List/03_Enemy_Table.xlsx
+++ b/Documents/Table_List/03_Enemy_Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\Def\DefensiveDungeon\Documents\Table_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Documents\GitHub\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FD97BF-79E4-43B0-B16A-DC5E4E88628D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69226F06-4329-4D57-9C58-386244826E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="14295" yWindow="3390" windowWidth="14400" windowHeight="12210" xr2:uid="{5A37F908-261C-4BE0-9C6B-B14E11827940}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A37F908-261C-4BE0-9C6B-B14E11827940}"/>
   </bookViews>
   <sheets>
     <sheet name="Enemy_Table" sheetId="2" r:id="rId1"/>
@@ -2116,6 +2116,36 @@
     <xf numFmtId="179" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2124,36 +2154,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2472,10 +2472,10 @@
   <dimension ref="B2:W57"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="S6" sqref="S6:T55"/>
+      <selection pane="bottomRight" activeCell="P46" sqref="P46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2490,63 +2490,63 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23">
-      <c r="B2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="17" t="s">
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="17" t="s">
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="15" t="s">
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="23" t="s">
+      <c r="S2" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="T2" s="24" t="s">
+      <c r="T2" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="U2" s="20" t="s">
+      <c r="U2" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="V2" s="17" t="s">
+      <c r="V2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="15" t="s">
+      <c r="W2" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="2:23">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="18"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2580,12 +2580,12 @@
       <c r="Q3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="16"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="16"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="15"/>
     </row>
     <row r="4" spans="2:23">
       <c r="B4" s="2" t="s">
@@ -5977,7 +5977,7 @@
         <v>1</v>
       </c>
       <c r="H55" s="10">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="I55" s="4">
         <v>10</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="L55" s="4">
         <v>0</v>
@@ -6032,6 +6032,12 @@
   </sheetData>
   <autoFilter ref="B5:W5" xr:uid="{13258274-53B7-4F09-920C-41EC9C872C80}"/>
   <mergeCells count="14">
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="R2:R3"/>
@@ -6040,12 +6046,6 @@
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="T2:T3"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Table_List/03_Enemy_Table.xlsx
+++ b/Documents/Table_List/03_Enemy_Table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Documents\GitHub\DefensiveDungeon\Documents\Table_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69226F06-4329-4D57-9C58-386244826E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CE6E9E-9AB8-4912-B9A0-9C415635AC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A37F908-261C-4BE0-9C6B-B14E11827940}"/>
   </bookViews>
@@ -2116,16 +2116,25 @@
     <xf numFmtId="179" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2145,15 +2154,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2472,10 +2472,10 @@
   <dimension ref="B2:W57"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="P46" sqref="P46"/>
+      <selection pane="bottomRight" activeCell="Q59" sqref="Q59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2490,63 +2490,63 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23">
-      <c r="B2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="12" t="s">
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="12" t="s">
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="14" t="s">
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="18" t="s">
+      <c r="S2" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="T2" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="U2" s="17" t="s">
+      <c r="U2" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="V2" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="W2" s="15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="2:23">
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="13"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="18"/>
       <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2580,12 +2580,12 @@
       <c r="Q3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="15"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="15"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="16"/>
     </row>
     <row r="4" spans="2:23">
       <c r="B4" s="2" t="s">
@@ -5974,10 +5974,10 @@
         <v>1</v>
       </c>
       <c r="G55" s="4">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H55" s="10">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="I55" s="4">
         <v>10</v>
@@ -6032,12 +6032,6 @@
   </sheetData>
   <autoFilter ref="B5:W5" xr:uid="{13258274-53B7-4F09-920C-41EC9C872C80}"/>
   <mergeCells count="14">
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="R2:R3"/>
@@ -6046,6 +6040,12 @@
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="T2:T3"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
